--- a/500all/speech_level/speeches_CHRG-114hhrg21275.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21275.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="381">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400052</t>
   </si>
   <si>
-    <t>Michael C. Burgess</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Burgess [presiding]. The subcommittee on Commerce, Manufacturing, and Trade will come to order.    The Chair recognizes himself for 5 minutes for the purpose of an opening statement.    I want to welcome everyone here this morning. This is going to be a very productive morning and, certainly, we have been looking forward to it for some time. It has been 20 years since Congress last reauthorized the Federal Trade Commission. I don't need to remind you that that was in the Dark Ages. People still carried pagers; they dialed into the internet, if they were lucky enough to have one, let alone multiple, e-mail accounts. The world was very much a different place.    We are long overdue to revisit the FTC Act and to ponder some of the targeted adjustments. We are guided by many new products and services that we have examined in this subcommittee in our Disruptor Series. Mobile payments and connected devices, for example, pose new policy questions. Some of these questions have inspired technophobia, but there is something that is actually more frightening than new technology, the prospect of never realizing the jobs and prosperity that result from the inventive industry because of fear of production.    A key takeaway from the Disruptor Series is that, if the law lags behind technology, capital shrinks and new products and services do not emerge. Certainty, on the other hand, begets investment, which, in turn, delivers more progress for consumers and, finally, does answer the questions that many Americans are still asking, where are the jobs?    Many members of the subcommittee have introduced bills that make general reforms to the Commission's activities under Section 5 of the FTC Act, and I thank them for their involvement and their leadership in this area. The basic FTC framework for policing unfair or deceptive conduct after the fact is a good one. However, the Federal Trade Commission faces tough decisions when it encounters cases presented by new products and new services in evolving markets.    For example, it must revisit the length of consent decrees against the speed of businesses and what other agencies do. Twenty-year consent decrees easily move away from after-the-fact remedies to a prospective ``Mother May I''-type regulation.    Other areas need fortification. It is widely understood that informal policy guidelines are helpful and do not create liability independent of enforceable rules or statutes. Clarifying that the Federal Trade Commission will not use them to pressure a settlement would provide incremental definition to a company's liability while maintaining the Federal Trade Commission's current authority.    Similarly, providing analyses showing why the Federal Trade Commission believes certain investigations reveal no liability would also help define legality under Section 5. Along with policy guidance, previous complaints, and consent orders, this additional information would be another strong signal for the market.    The second thing this morning deals with specific industries or services under the Federal Trade Commission's jurisdiction. The bills in this category focus on specific conduct that has been observed and has felt to possibly harm consumers. The Federal Trade Commission is likely familiar with many of these issues.    The Reinforcing American-Made Products Act recognizes the Federal Trade Commission's work on made-in-the-USA labeling and establishes it as a nationwide standard. Differing standards among states as to what is an American product has not always been helpful. This legislation would be especially impactful to a company back in Texas. In Justin, Texas, surprisingly, is the home of Justin Boots. They make handcrafted leather cowboy boots. The various patchwork state standards of made-in-America regulations throughout the country have made it difficult for Justin Boots to sell its products in all 50 states. And certainly, this morning I look forward to supporting legislation that will unburden this historic and great company from the amount of red tape imposed on it through these regulations. This bill is a critical step in making it worthwhile for United States manufacturers to make their product in America.    The Consumer Review Fairness Act builds on the Federal Trade Commission's work in the Roca Labs case, which was an enforcement action brought by the FTC against a company which producing a line of weight-loss supplements who allegedly made baseless claims for its products and, then, threatened to enforce gag clause provisions against consumers to stop them from posting negative reviews and testimonials online. A company should never be in the business of preventing American consumers from speaking honestly.    In summary, the bills we put forward today are designed to make some adjustments to ensure that innovation can thrive in order to provide consumer benefits and create jobs.    I now yield to the ranking member of the subcommittee, Ms. Schakowsky, for 5 minutes.</t>
   </si>
   <si>
     <t>400360</t>
   </si>
   <si>
-    <t>Janice D. Schakowsky</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Schakowsky. OK. All right. Thank you, Chairman Burgess, for holding this, our first legislative hearing in the subcommittee since September.    We have a long list of bills to discuss today, enough to fill several legislative hearings, and the connecting theme is the Federal Trade Commission.    The FTC is critical to consumers and businesses. It protects consumers from unfair and deceptive practices. At the same time, it defends fair competition. In just the past few months, the FTC has stopped organizations falsely claiming to help cancer patients in order to steal from unsuspecting donors. It has stopped a debt-relief organization that was targeting struggling homeowners and charging illegal fees.    We have talked a lot in this subcommittee about new technology, and the FTC has been fully engaged. Last month the FTC put out guidance for mobile health apps, encouraging companies to protect consumers' privacy as they develop these new products.    The FTC track record as a consumer and competition watchdog is impressive. As Chairman Ramirez shares with us in her written testimony, last year the FTC's consumer protection efforts yielded over $700 million in savings and its competition efforts saved consumers $3.4 billion. This agency works, and this subcommittee should be working to strengthen the FTC, not disrupt it.    Unfortunately, the bills put forth by Republicans in this hearing go in the wrong direction. They tie the hands of the FTC under the guise of so-called process reform. I have concerns with each of the eight Republican process bills.    For instance, the FTC uses consent decrees to protect consumers from repeated bad behavior by companies. One bill would cut the maximum length of these consent decrees by more than half, leaving consumers more vulnerable.    Suppose the FTC issues a consent decree against a company that fails to protect a consumer's credit card information. Under this bill, the company could put consumers' finances back at risk in as little as five years.    This and other proposals would effectively bog down the FTC by forcing it more frequently to review and renew its actions. Stretching the agency's resources would mean less protection, more consumers falling victim to deceptive ads and unfair business practices.    Under these bills when the FTC does take action, it would have to jump through additional hoops to protect consumers. It would be harder for the FTC to pursue actions to prevent harm to consumers, and when the FTC would want to take action under its now-narrowed authority, it would have to wait for a time-consuming economic analysis, even on minor actions. Instead of protecting consumers, these bills would protect companies that victimize consumers.    The so-called SHIELD Act would provide a safe harbor for companies that comply with FTC guidance at the same time it says that FTC cannot use noncompliance with guidance as proof that the law was violated. You can't have it both ways. Guidance is not the law and it definitely should not be treated as the law only when it works to the company's advantage.    I don't have enough time to go through all the problems with these bills one by one, but I think you have got the picture. These eight bills reflect an effort to prioritize the interest of industry above the interest of consumers.    Meanwhile, Democrats have introduced bills to empower the FTC. Congressman McNerney's bill would allow the FTC to go after deceptive practices by telecom companies such as lying about data, speed, or service that consumers will receive. Congressman Rush's bill would allow the FTC to more easily go after sham nonprofits.    In this hearing we will also be considering seven bills directed at specific areas of commerce such as tickets, sporting goods, hotels, funeral services, consumer reviews, and American manufacturing.    I look forward to hearing from supporters and opponents of each of these bills. I worry we won't have enough time to give each individual bill a thorough examination in this hearing, but I am glad that we are finally giving them a closer look.    We have a lot to discuss today, but, as we look at the bills today, I hope we focus on how we can best fulfill the FTC's mission of protecting consumers and competition.    I thank all our three panels of witnesses, and I look forward to your testimony.    I yield back right on time.</t>
   </si>
   <si>
@@ -73,27 +67,18 @@
     <t>400032</t>
   </si>
   <si>
-    <t>Marsha Blackburn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Blackburn. Thank you, Mr. Chairman.    Ms. Ramirez, we appreciate that you would take the time; also, appreciate your testimony and the fact that you have given a review to the legislation that we are bringing before you today. As Ms. Schakowsky said, we are going to have questions. We do want your input, and we look forward to moving ahead with the legislation and the bills that would really bring some additional and needed transparency to the FTC's consumer protection mission and get into addressing some industry-specific concerns. That is always helpful to industry. It is helpful to us, and I know you all as regulators, it is helpful to you.    I want to speak briefly about H.R. 5104, which Congressman Tonko and I have introduced, the Better On-Line Ticket Sales Act of 2016, or the BOTS bill as it is commonly called. This is important to many of my constituents who are in Tennessee who are concert performers and entertainers.    What this will do, simply, it to disallow the use of some of this hacking software that we see the scalpers use, and they bundle up all the tickets, purchase all the tickets before fans and our constituents and consumers have the ability to, from their laptop or mobile device or PC, get onto that online ticket sales portal and make their purchase.    So, as more of this moves online, it is important that we look at this. As a label head said to me yesterday, this is about keeping the marketplace fair and about allowing consumers to exercise online commerce and ecommerce. So, we do seek your input there.    I also want to welcome Robert Arrington, a fellow Tennessean who is here for the National Funeral Directors and say welcome to the committee. We look forward to hearing from you later on the bill.    With that, I yield my time to the Vice Chair of the subcommittee, Mr. Lance.</t>
   </si>
   <si>
     <t>412290</t>
   </si>
   <si>
-    <t>Leonard Lance</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lance. Thank you very much, Congresswoman.    This hearing is a product of our ongoing Disruptor Series, and the package of bills we are considering today is the result of what we have learned from these hearings and aims to bring the Federal Trade Commission into the 21st century.    For my part, I have introduced H.R. 5111, the Consumer Review Fairness Act, with my colleague from Massachusetts, Congressman Kenned. Today it is easier than ever for consumers to make informed choices on which business or service to use by conducting Web sites and apps that publish crowdsourced reviews of local businesses. Easy access to reliable product and service evaluations has reduced transactions costs and helped contribute to an enormous consumer surplus estimated in the billions of dollars.    Unfortunately, a number of businesses have become frustrated by what they perceive as unfair criticism, and some have turned to the questionable legal remedy known as non-disparagement clauses, often buried in nonnegotiable form contracts. These clauses prohibit their customers from writing negative reviews about their businesses. It is essential we protect consumers' right to free speech and remove any doubt in potential consumers' minds that the reviews they are reading online are anything other than fair and accurate.    This bill would void non-disparagement clauses in form contracts. It would also provide the FTC with the enforcement tools it needs to combat the bad actors who try to use these onerous clauses.    And I yield the balance of my time to Mr. Pompeo of Kansas.    Anyone else on our side?    [No response.]    Thank you very much.    I next recognize the ranking member of the full committee, Mr. Pallone.</t>
   </si>
   <si>
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you. It is good to see you in the chair.</t>
   </si>
   <si>
@@ -109,9 +94,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Ramirez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ramirez. Thank you. Dr. Burgess, Ranking Member Schakowsky, and members of the subcommittee, I appreciate the opportunity to appear before you today to present the Federal Trade Commission's testimony on the 17 bills under consideration by the subcommittee. My fellow Commissioners and I appreciate the subcommittee's commitment to protecting both consumers and innovation.    As you know, the FTC is an independent and highly-effective bipartisan agency. We are the only agency with the jurisdiction to protect consumers and promote competition in most sectors of the economy.    As a civil law enforcer, we guard against business practices that are unfair or deceptive to consumers and we aim to do so without impeding legitimate business activity. We also enforce the antitrust laws to ensure a competitive marketplace in which law-abiding businesses can flourish.    In addition to our law enforcement, the FTC engages in extensive research and policy work. The FTC also educates consumers and businesses to encourage informed consumer choices, compliance with the law, and public understanding of the competitive process.    We are particularly committed to addressing the impact of technology and changing business practices as part of our law enforcement, policy, and education efforts. We work to enhance our understanding of how technology affects consumers and the functioning of the marketplace through research and engagement with consumer advocates, industry, academics, and other experts.    Over the last several years, we have also deepened our internal technical expertise. We hired our first Chief Technologist in 2010 and have continued to attract prominent experts to serve in that role. And last year we created the Office of Technology, Research, and Investigation to support our law enforcement efforts and explore cutting-edge technical and policy issues relating to big data, the internet of things, and other emerging technologies.    But, even as commerce and technology continue to evolve, many of the fundamental problems we see in the marketplace remain the same: fraudulent schemes, deceptive advertising, unfair practices, as well as mergers and conduct that harm or threaten to harm competition. The agency tackles these challenges through targeted law enforcement. Our structure, committed staff, and research capacity enable the FTC to meet its mandate of protecting consumers and competition in an ever-changing marketplace.    I appreciate the opportunity to comment on the 17 proposed bills before the subcommittee. While the Commission generally supports several of the bills, we believe that other measures may unintentionally hamper the FTC's ability to continue to fulfil its mission to protect consumers and competition. Our written testimony addresses each of the bills, but let me provide a brief overview.    House bills 5111, 5092, 4460, 4526, 5212, 5245, and 5104, if enacted, would identify and address specific acts or practices that Congress proposes to include in the Commission's consumer protection agenda. We generally share the subcommittee's goals in these areas. For example, to prevent companies from silencing truthful consumer reviews, to stop deceptive safety claims in the sale of sports equipment, to promote fairness and transparency in sale of concert tickets, and to prohibit online travel sites from deceiving consumers about their affiliations with hotels.    The Commission also shares the subcommittee's goal of facilitating deliberations and highlighting important agency work. To this end, H.R. 5116 would give a bipartisan majority of Commissioners another way to meet and deliberate, and portions of H.R. 5098 would require an annual report to Congress on the important problem of elder fraud.    As to several other bills, specifically H.R. 5093, 5097, 5109, 5118, 5136, 5115, and the remaining portions of 5098, we do have certain concerns. We recognize and support the objectives of these bills, the avoidance of undue burdens on business, transparency of agency operations and its application of the law, and assurance that agency actions are based on sound analysis and evidence.    But the agency already has a variety of processes in place to advance these important values. As explained in our written statement, we are concerned that the measures could have unintended consequences for our work and, ultimately, for consumers.    Finally, House bills 5239 and 5255 would repeal the common carrier and nonprofit exemptions to the FTC Act. The Commission supports these measures which would allow us to protect consumers and competition more broadly and to ensure the consistent application of laws across economic sectors.    In closing, I want to reiterate that we are committed to finding ways to enhance our effectiveness, anticipate and respond to changes in the marketplace, and meet current and future challenges.    Thank you very much.</t>
   </si>
   <si>
@@ -193,9 +175,6 @@
     <t>412543</t>
   </si>
   <si>
-    <t>Joseph P. Kennedy III</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kennedy. Thank you, Mr. Chair. I appreciate the chance to have an important hearing.    And to the Chairwoman, thank you very, very much for appearing before us.    Last month I was pleased to join my colleague, Congressman Lance of New Jersey, in introducing the Consumer Review Fairness Act. And I appreciate the comments on the proposed legislation that you were helpful with.    I would also like to commend a friend of mine, Eric Swalwell, who has been working on this issue for several years as well.    I think we can all agree that truthful consumer reviews are an invaluable tool for prospective consumers in making an informed decision. Like you, I am concerned about companies hiding non-disparagement clauses in their terms of service in an effort to bar consumers from posting negative reviews of a product, service, or experience.    Ms. Ramirez, can you briefly discuss the current tools at the FTC's disposal to combat these types of non-disparagement clauses and how the FTC has dealt with these cases in the past using these clauses?</t>
   </si>
   <si>
@@ -241,9 +220,6 @@
     <t>412280</t>
   </si>
   <si>
-    <t>Gregg Harper</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Mr. Chair.    And thank you, Chairwoman Ramirez, for being here.    H.R. 5092, the Reinforcing American-Made Products Act, would establish a national standard on marketing products made domestically with the label ``Made in USA''. The bill aims to provide that consistency and clarity for manufacturers and businesses and, hopefully, for consumers as well. It would also help manufacturers avoid legal risk and additional regulations caused by conflicting labeling requirements for individual states and, thereby, I believe, help consumers by reducing those costs.    And I certainly appreciate the work that the Commission has done to develop its guidance on made-in-USA labeling. The FTC has worked with American manufacturers to ensure they understand what it means to source all or virtually all of their inputs domestically. As you noted in your testimony, the FTC standard is based on consumer understanding, and this is the touchstone that matters most because the purpose of the label is to inform rather than to confuse consumers.    What is the danger in having differing standards throughout the United States on made-in-USA labeling?</t>
   </si>
   <si>
@@ -331,9 +307,6 @@
     <t>412302</t>
   </si>
   <si>
-    <t>Pete Olson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Olson. I thank my friend from Texas.    Good morning, Chairwoman Ramirez.    As Chairman Burgess mentioned in his opening statement, this hearing is very important to me and the people of Texas, too. FTC's actions threatened Justin Boots in Justin, Texas. That gets my attention because I walked into this hearing with a pair of black ostrich, form-fitting Justin boots made in Justin, Texas. Don't mess with Texas.    [Laughter.]    But, to be serious, I do want to talk about the best bill in the FTC pack, H.R. 5116, the FREE Act. This bill corrects misapplication of open meeting initiatives, and thank you for your support.    I have seen this problem firsthand back at home in Pearland, Texas. Under Texas Open Records laws, I could not meet with our members of the city council to talk about flood control, expanding Highway 288, or our team playing baseball in the Little League World Series. I could not do that because of Texas Open Records.    So, to get around that, well, we had to meet in public, have an audience, engage the whole apparatus of the city to record that meeting for the record. We solved that problem by meeting two-by-two for half-an-hour, very inefficient, without enjoying discussions with the full council.    It appears we have strapped the FTC with similar constraints. H.R. 5116 fixes that problem. My question is, how does FTC's work see needless constraints on meetings among Commissioners because of the Open Records Act? I mean, are there times when this would be helpful? You have three Commissioners right now. If two sought to meet informally, it would trigger Open Records. How about making this stop and just having open and free discussion?</t>
   </si>
   <si>
@@ -379,9 +352,6 @@
     <t>412278</t>
   </si>
   <si>
-    <t>Brett Guthrie</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you.    Thank you, Commissioner, for being here.    A particular piece of legislation that I have that we are looking at today is the CLEAR Act, and I understand that closing letters are sometimes provided when an investigation has taken place and you decide that there wasn't an illegal act. So, the closing letters are provided, but these do not include information that would be helpful for companies to determine behavior that is not illegal.    The CLEAR Act provides a framework for illustrating fair and truthful practices. But you noted your concern in testimony that the descriptions required in the bill may identify a company even though the bill prohibits the Commission from including information that identifies the company at issue. And I understand your concern to mean that, even if no information identifies the company in the description, the company could be, nonetheless, identified.    So, my first question is, do you believe the Commission is unable to describe the legal activities of a company without providing sufficient information for the company to be identified? Because what we are hoping is that in the course of your investigation you can say, ``We looked at these practices. They are legal,'' and other companies could use that to guide themselves as guidance. Is there a possibility of doing that? I know when you asked about the CLEAR Act, your concern on the CLEAR Act was you would disclose companies, and we think it could be done without.</t>
   </si>
   <si>
@@ -409,9 +379,6 @@
     <t>412221</t>
   </si>
   <si>
-    <t>Yvette D. Clarke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Clarke. I thank the chairman and I thank our ranking member.    And I thank the Chairwoman for her testimony here this morning.    We all need to remember that the FTC exists not to attack companies, but to protect consumers. Enforcement actions have happened when a company or a person is committing unfair or deceptive acts or practices that harm consumers.    Chairwoman Ramirez, in my view, a number of the bills we are discussing today could have detrimental effects on the FTC's ability to carry out its consumer protection mission. For example, H.R. 5115 codifies select portions of the FTC's statement on unfairness. The bill focuses on portions of the statement that discusses substantial injury, but ignores other portions of the statement, including a discussion of circumstances in which public policy concerns will independently support action by the FTC.    So, can you tell us a bit more about some cases in which the Commission relied on public policy standards?</t>
   </si>
   <si>
@@ -445,9 +412,6 @@
     <t>412250</t>
   </si>
   <si>
-    <t>Gus M. Bilirakis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bilirakis. Thank you, Mr. Chairman. I appreciate it. Thanks for holding this very important hearing.    Chairwoman Ramirez, I want to thank you and the Commission for your great efforts on behalf of the past on the campaign to educate seniors on schemes that could affect them.    I am also supportive of the Commission's effort to identify and bring enforcement actions against bad actors that specifically target older Americans. Although the FTC has not yet seen increased rates of fraud in older Americans versus other populations, I am concerned that, as the population ages and more older Americans begin using the internet regularly, that these trends will be accompanied by fraud targeting seniors.    It has been about 2 years since the Pass It On Campaign began. Do you have any thoughts as to what has worked best in this outreach campaign and what lessons other outreach organizations might learn from the Commission's experiences along the way?</t>
   </si>
   <si>
@@ -472,9 +436,6 @@
     <t xml:space="preserve">    Mr. Burgess. The Chair thanks the gentleman. The gentleman yields back.    The Chair recognizes Mr. McNerney, 5 minutes for your questions, please.</t>
   </si>
   <si>
-    <t>McNerney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McNerney. Well, I thank the chairman. I thank the chairman for allowing me to sit in on this hearing.    Ms. Ramirez, as you know, my bill, H.R. 5239, the Protecting Consumers in Commerce Act of 2016, would lift the common carrier exemption from the FTC's jurisdiction. Lifting this exemption would have the effect of directing the FTC to prevent common carriers from engaging in unfair and deceptive practices against consumers.    Would you briefly explain what the common carrier exemption is and what it means?</t>
   </si>
   <si>
@@ -514,9 +475,6 @@
     <t>412568</t>
   </si>
   <si>
-    <t>Markwayne Mullin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mullin. Thank you, Mr. Chairman.    Ma'am, thank you for being here.    What I am wanting to focus on a little bit first is a bill that we have. My legislation, the SURE Act, would build that by qualifying additional portions of the policy statement. My goal is to provide more clarity as to the consideration at play in the unfairness cases without altering the FTC authority. It seems my bill simply clarifies current language.    My question to you, ma'am, how does codifying a statement that the FTC currently uses to guide its unfairness case take away any authority?</t>
   </si>
   <si>
@@ -592,9 +550,6 @@
     <t>412431</t>
   </si>
   <si>
-    <t>Mike Pompeo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pompeo. Thank you, Mr. Chairman.    And thank you, Chairwoman Ramirez, for being here today.    You had a discussion with Mr. Pallone about H.R. 5136 that had to do with publishing the work of the Bureau of Economics. The bill is pretty simple. It requires the Bureau of Economics to point to a problem with your recommendation that it seeks to solve, and then, requires the Bureau to say why the market and public institutions are inadequate to take on that problem.    Your primary criticism was that it was going to impose a burden, that you might not be able to do some other things you do because of this burden. Did I understand that correctly?</t>
   </si>
   <si>
@@ -664,9 +619,6 @@
     <t>412539</t>
   </si>
   <si>
-    <t>Susan W. Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you, Mr. Chairman. I also want to thank you for holding this hearing.    As the chairman and others may know, Sunday is going to be the 100th running of the Indianapolis 500. As you might imagine, this garners a lot of attention, not only at home, but across the country and the world. In fact, over 300,000 people are expected to come from around the world to our great city this weekend to witness the greatest spectacle in racing.    But our Indianapolis area hotels have been sold out since March 15th and people are booking hotels as far away as South Bend, which is about three hours away. And so, while demand is high, there is, unfortunately, some who seek to take advantage of this and other major sporting events to deceive or mislead the race fans for a quick buck. Last week my office met with a constituent from Shockett Hotels who told us that third-party sites take payments from visitors and promise a room in return. And then, this comes as news for the hotel that has not contracted with these entities and is left to deal with legitimate rage of a visitor who is showing up when they, the hotel, has to break the news that they are booked and that that visitor does not have a room. It can be a huge problem for us this weekend.    That is why I am interested in examining my good friend Ms. Frankel and Ms. Ros-Lehtinen's bill 4526 today that seeks to strengthen the vital safeguards, increase consumer protections, and bolster the enforcement efforts necessary to stop scammers from mimicking legitimate Web sites. So, I am interested in hearing about the benefits of the legislation and how we might improve their legislation because, obviously, the backbone of Hoosier hospitality relies on getting these types of things right. We don't want a lot of angry visitors and race fans. It is not a pretty picture when that happens.    So, Ms. Ramirez, according to the hotel industry, this type of scam, close to 15 million reservations were made on such deceptive Web sites and cost U.S. travelers upward of $1.3 billion. Forty-one thousand people every day are getting scammed by these types of Web sites.    Are you aware of this and seeing this kind of fraud in the hotel market? And what kind of numbers are you seeing, if not?</t>
   </si>
   <si>
@@ -766,45 +718,30 @@
     <t xml:space="preserve">    Mr. Burgess. The subcommittee will come to order.    Welcome back. Thank you for your patience, and thank you, again, for taking the time to be here today.    We are moving into the second panel for today's hearing. We are going to follow the same format as the first panel. Each witness will be given 5 minutes for an opening statement, followed by questions from members.    For our second panel, we have the following witnesses: Mr. Joshua Wright, University professor, Antonin Scalia Law School, George Mason University; Ms. Abigail Slater, general counsel at The Internet Association; Mr. David Vladeck, professor of law at Georgetown; Mr. Geoffrey Manne, founder and executive director at the International Center for Law and Economics, and Mr. Daniel Castro, vice president for Information Technology and Innovation Foundation.    We appreciate each of you being here today. We will begin our panel with you, Mr. Wright. You are recognized for 5 minutes for an opening statement.</t>
   </si>
   <si>
-    <t>Wright</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wright. Thank you, and thank you for the invitation to testify today.    Chairman Burgess, Ranking Member Schakowsky, and members of the subcommittee, thank you for the opportunity to appear before you today, in particular, to discuss those proposed bills aimed at improving the FTC's processes and consumer protection enforcement.    My name is Josh Wright, and I am a university professor at the Antonin Scalia Law School at George Mason University and senior counsel at Wilson Sonsini Goodrich &amp; Rosati.    Until August 2015, I was Commissioner of the Federal Trade Commission. During my career as an economist and lawyer, I have been fortunate enough to enjoy four separate positions at the FTC, ranging from a teenaged intern in the Bureau of Economics to Commissioner.    Before diving into the subject of today's hearing, I want to make clear that the views I express here today are my own. In my written statement I discuss in greater detail a number of the 17 bills that are the subject of today's hearing.    In my opening remarks I would like to discuss what I view as the key institutional challenge facing the FTC and its consumer protection mission, to more deeply integrate economic analysis at all levels of decisionmaking from staff members to the Commission. With this in mind, I would like to begin with a brief discussion of the role of economics and the Bureau of Economics at the FTC.    The Bureau of Economics provides guidance and support to the agency's competition and consumer protection activities. It is a separate unit from the Bureaus of Competition and Consumer Protection and, thus, provides independent economic advice to the Commissioners. Working within the Bureaus of Competition and Consumer Protection, the Bureau of Economics participates in the investigation of mergers and alleged anticompetitive, deceptive, and unfair acts or practices. It also conducts rigorous economic analyses of various markets and industries.    The FTC's success has been attributable in large part to its flexible enforcement authority that allows it to adapt quickly to changes in technology and business practices, its commitment to integrating independent economic analysis to guide the use of those enforcement tools, and the remarkably high quality of its staff of PhD economists in the Bureau of Economics. I have written elsewhere, and I think it's worth repeating here, that the economists assembled within the Bureau of Economics are simply the best team in any regulatory agency in the United States.    Where the FTC has been mindful of integrating economic thinking and research into its new enforcement and policy endeavors, it has performed very well. When the agency's enforcement priorities have become untethered from economic analysis, it has faltered, overreached, and become the subject of significant criticism.    As technology evolves and the FTC's consumer protection shifts into digital markets, privacy regulation, the internet of things, and the world of big data, it is more important than ever that rigorous economic analysis anchors the FTC's activities. With that in mind, I do want to specifically acknowledge Chairwoman Ramirez for her leadership on these issues and commitment to ensuring that economic analysis remains a priority for the agency.    The Commission, however, does occasionally fail to tether itself sufficiently to rigorous economic analysis in its reports, recommendations, and enforcement actions. Consider the Commission's application of its unfairness authority and its recent action against Apple. The Commission issues an administrative complaint alleging that Apple engaged in an unfair act or practice because Apple's 15-minute window which allowed consumers to void entry of a password a second time after an initial purchase did not allow parents the opportunity for express informed consent.    Apple's product design choices, including the nature of these disclosures and its choice to integrate the 15-minute window to enhance the user experience are a product of considerable investment and innovation. And as most consumers with smartphones know, this feature provides substantial benefits for consumers who don't want to experience excessive disclosures or enter passwords every time they make a purchase. Yet, the FTC cursorily dismissed Apple's design decisions and disclosures having zero benefits for consumers and only imposing harm.    To be clear, while cases like Apple are relatively rare, they are likely to be an increasing part of the FTC's portfolio. Rigorous economic analysis is the best tool the FTC has available to protect consumers against a risk of erroneously condemning business practices that benefit consumers. For example, in Apple, greater attention to economic analysis would, in my view, have kept the FTC from a harmful second-guessing of product design decisions in ways that might damage innovation.    I would like to mention one specific suggestion to the subcommittee concerning a proposal that would facilitate greater incorporation of economic analysis into Commission decisionmaking. Specifically, I would propose the subcommittee consider amending the SURE Act to mandate that the Bureau of Economics publish a separate explanation of the economic analysis of its cost and benefits of the Commission's action whenever it enters into consent decrees.    The primary benefit of this proposal would be to provide the economists within the FTC a greater role in the development of the agency's consumer protection enforcement priorities in this era of increasingly-complex cases involving rigorous analysis of policy tradeoffs.    Thank you very much for your time, and I am happy to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The Chair thanks the gentleman.    The Chair recognizes Ms. Slater for 5 minutes for your opening statement, please.</t>
   </si>
   <si>
-    <t>Slater</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Slater. Thank you. Chairman Burgess, Ranking Member Schakowsky, and members of the subcommittee, thank you for the opportunity to testify before you today.    My name is Gail Slater, and I am the General Counsel at The Internet Association. The Internet Association represents over 40 of the world's leading internet companies. As the voice of the internet economy, part of our job is to ensure that all stakeholders understand the benefits the internet brings to our society.    Today I will highlight three issues for the committee which my written testimony provides greater detail on. First, the Federal Trade Commission plays an important and respected role in our society. However, there is always room for modernization and increased transparency at any agency.    Second, one FTC process bill, in particular, the TIME Act, is important to The Internet Association's members. The internet is a fast-moving and dynamic marketplace, and the framework for FTC consent orders should recognize this reality.    Lastly, the Consumer Review Fairness Act will protect consumers nationwide from meritless attempts to silence free speech, in addition to bolstering the growing online economy.    Regarding FTC process, it is important, first, to acknowledge the valuable role the FTC plays in promoting competition and protecting consumers in our society. Beyond our borders, the FTC plays an equally important role, most recently in the extensive negotiations around the U.S.-EU Privacy Shield with which the committee is familiar.    The Internet Association thanks Chairwoman Ramirez for her leadership of the agency, both here in the U.S. and overseas. However, while we recognize the FTC for the important work that it does, there is always room for modernization and increased transparency at a 100-year-old agency.    Although FTC consumer protection and substantive law and policy commands most of the spotlight, Commission process can be equally important to stakeholders, which brings me to my second point. Of the bills before the committee today, the TIME Act is of particular importance to Internet Association members. The TIME Act would create an 8-year cap on consent orders the FTC enters into; whereas, under current agency practice, consent orders expire only after 20 years.    To put 20 years in context for internet companies, it might be helpful for the committee, first, to cast their memories back to the year 1996, if they can, and then, to fast-forward to the year 2036. In 1996, AOL and CompuServe were the largest internet platforms in the world. Facebook founder Mark Zuckerberg was 12 years old, and Google was still just a research project for two Stanford grads. Dumb mobile phones barely existed, and smartphones were a figment of Steve Jobs' imagination. In 2036, it is hard to even begin to predict the ways in which we will use the internet.    This time travel exercise is a lighthearted way of illustrating that the internet changes a lot in 20 years. Yet, while internet markets are highly-dynamic, the FTC consent orders applied to them are static. This matters because 20-year consent orders serve to slow down the pace of innovation of the companies involved and are often outstripped by marketplace developments during their term. The TIME Act corrects this imbalance by creating a presumptive 8-year limit on FTC consent orders.    The third and final topic I wish to address today is the Consumer Review Fairness Act, also known as CRFA, which will protect consumers nationwide from meritless attempts to silence free speech online, in addition to bolstering the growing online economy. The FTC would play an important role in the CRFA as backstop enforcer.    To put the CRFA in context, it may be helpful, first, to talk about the importance of online reviews to consumers. Included in the benefits the internet brings to our economy is the so-called consumer surplus, which exists because the internet empowers consumers to make smarter and quicker choices about how and where they spend their money. This consumer surplus is calculated to be valued at billions of dollars per year.    A great example of the consumer surplus in action is consumer reviews. Every day Internet Association members like Amazon, Trip Advisor, and Yelp democratize purchasing and access to information by crowdsourcing the experiences of others in consumer reviews.    In today's digital economy, nearly 70 percent of consumers rely on online consumer reviews for information on where to eat, shop, travel, and more. However, although most businesses have come to accept this shift in consumers' knowledge, a minority of holdouts refuse to let consumers share their experiences online through onerous contractual terms.    Consumers usually have no idea they are signing up for contracts attempting to limit speech, which are usually only provided in small print at the moment of check-in or purchase. A patchwork of state laws, court decisions, and federal agency actions, including the FTC's, have attempted to protect consumers subject to non-disparagement clauses. However, we must address the issue on a national level to ensure the protection of all consumers online.    The CRFA, which would prohibit the use of these onerous clauses, will protect consumers nationwide from meritless attempts to silence free speech. The Internet Association strongly supports this legislation's effort to protect online reviewers of goods and services from clauses that inhibit honest reviews, and commends the committee for examining this issue during today's hearing.    I welcome your questions on these important topics. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The Chair thanks the gentlelady.    Mr. Vladeck, you are recognized for 5 minutes for your opening statement, please.</t>
   </si>
   <si>
-    <t>Vladeck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Vladeck. Thank you. Thank you very much, Dr. Burgess, Ranking Member Schakowsky.    I am David Vladeck. I teach at Georgetown Law School, and I served as Director of the Federal Trade Commission's Bureau of Consumer Protection from 2009 until 2012.    I thank you for inviting me to be here this morning. You have my written statement which addresses many of the proposals pending before this committee. I want to focus my remarks on three particular bills.    And I want to start off by urging the committee to first do no harm. There are a number of these bills that I think are, no doubt, well-intentioned, but would hobble the agency's ability to effectively protect consumers.    I want to start with the TIME Act which would overturn by statute a carefully-considered, balanced, bipartisan view of the Commission that consent decrees ought to last for 20 years, absent some change in circumstance that warrants their modification.    Now one thing to keep in mind is, if we sue in District Court, those injunctions last in perpetuity until they are modified or otherwise rescinded. And so, 20 years I understand sounds like a long time, but it is the only remedy the Commission has in virtually all of the cases. So, the proposed bill would turn a 20-year consent decree into an eight-year one, renewable only if the Commission can meet the standards set out in the statute. It turns meaningful restraint into what lawyers would call somewhat of a glorified slap on the wrist. And it is particularly inapt here because the data breach cases that the agency litigates and settles are really the only economic incentive for companies to really have robust data security.    So, let's look at the facts. In 2015, there were nearly half a million complaints filed with the FTC about identity theft. Identity theft is the debris of an internet economy that does not take data security seriously enough.    The Department of Justice estimates that more than 17 million people, 7 percent of American adults, were victims of at least one incident of identity theft in 2014, and this is big business. The last statistics the Justice Department compiled come from 2012, but there identity theft cost the U.S. economy $24 billion, $10 billion more than all of the losses attributable to property loss through crimes.    So, this is the one real tool the agency has. I don't believe any of the companies under consent order have ever been recidivists. And, you know, the argument is this is going to stifle innovation. Well, look at the companies under order. Not one has experienced any sort of speed bump in innovation. Facebook, Twitter, Google, small companies like Chitika, FrostWire, they are thriving.    And the reason is our consent decrees are tailored not to stifle innovation. If you look at the Google order, it requires the company don't lie; if you are going to change your data-sharing practices, get the consent of the consumer first, and give the agency audits every other year.    In data security cases the fundamental consent decree is do what is reasonable; do what a reasonable company in your shoes would do, and help keep us informed. Those are the nuts and bolts of these FTC orders.    There is a lot of rhetoric here about stifling innovation. I would like to see a case in which some company made a credible claim that was true.    Next, I would like to talk about the changes to the unfairness statement. Contrary to the remarks earlier, the unfairness statement would substantially amend existing law. There are no two ways about it. It would cherry-pick certain provisions to the unfairness statement and make them the law, and it would add others.    Congress has deliberated on this issue for 100 years, and Congress has decided not to do what has been proposed, which is to rigidify and take off the table options for the agency simply because the marketplace changes. We could not have conceived of unfair acts like what took place in DesignerWare where people devised devices that you take into your home and surreptitiously photograph you, your family, and your loved ones. This is something that we didn't anticipate in 1980, but it is true today. And this recodification of the unfairness standard jeopardizes those kinds of cases.    The last point I want to make is the SHIELD Act. It may be that the intent of the bill is simply to allow evidence of compliance introduced as compliance with guidance documents, but that is not the way the bill is written. Compliance with a guidance document would be viewed as compliance with the law, and it would serve as an absolute defense liability. This may simply be a drafting problem, but the way it is written now, it is a get-out-of-jail-free card for companies that have violated the law, simply because they can find somewhere in the agency's archives a statement from a guidance document that might support its position in litigation. That doesn't protect anyone that we want to protect. It certainly doesn't protect consumers.    I see my time has expired. Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The Chair thanks the gentleman.    Mr. Manne, you are recognized for 5 minutes for an opening statement, please.</t>
   </si>
   <si>
-    <t>Manne</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Manne. Thank you. Thank you, Chairman Burgess and Ranking Member Schakowsky, and members of the subcommittee. Thank you for the opportunity to appear today.    I am the executive director of the International Center for Law and Economics, a nonprofit, nonpartisan research center; a formerly law professor. I used to work at Microsoft. And I had what I like to call the most illustrious FTC career ever because, at approximately two weeks, it was probably the shortest.    I am not typically one to advocate for active engagement by Congress in anything, no offense, but the FTC is different. The FTC is unique. Despite some congressional reforms, the FTC remains the closest thing we have to a second national legislature. People don't see it that way, but its jurisdiction really does cover nearly every company in America. Section 5, the heart of the FTC, the substantive part runs about 20 words. That leaves an enormous amount of discretion for the Commission to use in a way that is effectively making policy decisions that are essentially legislative.    The courts were supposed to keep the agency on course, but they haven't. As former Chairman of the FTC Muris has written, the agency has traditionally been beyond judicial control.    So, it is up to Congress to monitor the FTC's progress, to tweak them when the FTC goes off-course, which is inevitable. That is not a condemnation of the FTC's dedicated staff. It is just that this one-way rachet of ever-expanding discretion is simply the nature of the beast.    Yet, too many people lionize the status quo. They see any effort to change the agency from the outside as an affront. It is as if Congress was struck by a bolt of lightning in 1914 and the perfect platonic agency sprang forth and there is nothing we can do to improve it.    But in the real world an agency with such massive scope and discretion needs oversight and feedback on how its legal doctrines evolve. So, why don't the courts play that role? Well, it turns out companies essentially always settle with the FTC in its consumer protection work because of its exceptionally-broad investigatory powers, its relatively-weak standard for voting out complaints, and the fact that those decisions effectively aren't reviewable in federal court.    And then, there is the fact that the FTC sits in judgment of its own prosecutions. So, even a company that doesn't settle and actually wins before the administrative law judge, even in those cases, when the FTC staff comes back to the Commission on appeal, it wins 100 percent of the time. Well, able, though, the FTC staffers are, this cannot be from sheer skill alone.    So, whether by design or neglect, the FTC has become a largely unconstrained agency, again in Tim Muris' words. But please understand, I say this out of love. To paraphrase Churchill, the FTC is the worst form of regulatory agency except for all the others.    Eventually, Congress did, of course, have to course-correct the agency, to fix the disconnect, to apply its own pressure to try to refocus this evolution of Section 5 doctrine. A heavily Democratic Congress pressured the Commission to adopt the unfairness policy statement. The FTC promised to restrain itself by balancing the perceived benefits of its actions, of its unfairness actions against the costs, not acting when an injury was insignificant or consumers could have reasonably avoided the injury on their own. This was inherently an economic sort of calculus.    But, while the Commission certainly pays lip service to this test, you would be hard-pressed to identify or even know whether it is being implemented in practice. Meanwhile, the agency has essentially nullified the materiality requirement that it volunteered in its 1983 deception policy statement.    Worst of all, Congress failed to anticipate that the FTC--not the omniscient Congress of 1914, this was later--Congress failed to anticipate that the FTC would resume exercising its vast discretion through what it now proudly calls its common law of consent decrees in data security cases. Combined with a flurry of recommended best practices and reports that function as quasi-rulemakings, these settlements have enabled the FTC to circumvent both congressional rulemaking reforms and meaningful oversight by the courts.    The FTC's data security settlements aren't an evolving common law. They are a static restatement of reasonable practices repeated about 55 times over the past 14 years. At this point, it is reasonable to assume that they apply to all circumstances, kind of like a rule would, which is more or less the opposite of the common law.    Congressman Pompeo's SHIELD Act would help curtail this practice, especially if amended to include consent orders and reports within its scope. It would also help focus the Commission on the actual elements of an unfairness policy statement. Those should, indeed, be codified through Congressman Mullin's SURE Act. Mr. Vladeck and I will have some words about that, I suspect.    Significantly, only one data security case has actually gone before the court, an Article III Court, one. The FTC trumped its Wyndham as an out-and-out win, but it wasn't. In fact, the court agreed with Wyndham that prior consent orders were of little use in trying to understand the requirements of Section 5.    More recently, the FTC suffered another rebuke. While it won its product design suit against Amazon, the Court rejected the Commission's fencing-in request to permanently hover over the company and micromanage practices that Amazon had already ended.    As the FTC grapples with the cutting-edge legal issues of today, it is drifting away from the balance it promised Congress. Congress can't fix these problems simply by telling the FTC to take its bedrock policy principles more seriously. Congress must regularly reassess the process that has allowed the FTC to avoid meaningful judicial scrutiny. The FTC requires significant course correction, and significant course correction over time, if its model is to move closer to a true common law.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The Chair thanks the gentleman.    Mr. Castro, you are recognized for 5 minutes, please.</t>
   </si>
   <si>
-    <t>Castro</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Castro. Thank you. Chairman Burgess, Ranking Member Schakowsky, and members of the subcommittee, I appreciate the chance to discuss the opportunity Congress has to modernize the FTC, so that it better protects consumers from harm while minimizing regulatory cost and better enabling robust innovation in the U.S. economy.    The FTC's actions send important signals to the private sector about how it should allocate its resources to comply with federal regulations. Ideally, these signals should encourage business to take actions that protect consumers, discourage actions that harm consumers, and not interfere with the private sector risk-taking that underpins innovation. Unfortunately, that is not always the case. Let me provide two examples.    In 2014, the FTC entered a consent decree with Apple over complaint that the company had charged consumers millions of dollars for charges incurred by children without their parents' consent. The key fact in this case was that Apple did not inform customers that, once they enter their password, they opened a 15-minute window during which further charges could be made without additional verification from the account-holder. As part of the consent decree, Apple agreed to stop this practice.    However, for many users, not having to enter their password repeatedly was a convenient feature, not a bug. After all, only a tiny fraction of Apple's customers are children making purchases without their parents' permission. Thus, on balance, it is unlikely that there is even a net harm. It is even possible that the FTC's actions made consumers worse off, since users who are forced to enter their password too frequently may choose to use simpler and, thus, weaker passwords, and thereby increase their risk of a data breach.    These types of unintended consequences happen when government is put in charge of product design. My fellow panelists ask how consent decrees impact innovation. This is exactly how it does it.    As a second example, consider the FTC's case against Nomi. Nomi ran into trouble because it misstated in its privacy policy that customers had the option to opt out of its in-store retail analytic service at its partners' stores. To be clear, the FTC did not object to the tracking itself and the company was under no obligation to provide this additional opt-out feature. Moreover, the FTC could not find any evidence that a single consumer actually suffered any harm. Therefore, the FTC ultimately chose to use its regulatory authority to take action against the company for what was possibly a lawyer's mistake in drafting Nomi's privacy policy, despite no evidence that any consumers were actually harmed.    By formally taking action when there is no injury to consumers, the FTC has signaled to companies that they should spend more time on corporate lawyers and less time delivering value to consumers, including through developing privacy- and security-enhancing technologies. After all, companies like Nomi would be better off providing no privacy guarantees to their consumers, so they will not fall victim to ``gotcha''-style regulatory enforcement actions. Rather than bringing a case and settlement against Nomi, the FTC should have shown some regulatory restraint by simply notifying the company of the problem and verifying that it had been corrected.    There are a number of changes that Congress should make to the FTC, so as to avoid these types of perverse outcomes and unintended consequences. First, the FTC should not take enforcement actions against companies for acts or practices unless the FTC can show substantial injury that is more than trivial or merely speculative. Instead, the FTC should focus its resources on cases where there is a direct and tangible consumer harm. Doing so will incentivize companies to prioritize internal actions that can actually prevent consumer injury.    Second, the FTC should publicly disclose when it decides to not pursue an investigation. This information would help the private sector better understand how the FTC is enforcing its policies and allow businesses to better comply with the law.    Third, the FTC should stop its practice of using 20-year terms for its consent decrees. By almost any standard, this is an extraordinary amount of time. Most states do not even require sex offenders to register for this long. And there does not appear to be any legitimate reason for this length. This is a waste of time and money for all parties and an avenue for backdoor rulemaking.    Finally, when making policy recommendations, the FTC tends to focus disproportionately on speculative harms while ignoring the tangible benefits for both consumers and businesses and the cost of overly-restrictive regulations. The FTC should only make evidence-based policy recommendations that include a cost/benefit analysis.    If Congress does not address the FTC's approach to consumer protection, compliance may become either a check-the-box activity or, worse, interfere with business practices that would make consumers better off and increase innovation in the U.S. economy.    Thank you for the opportunity to share with you my thoughts on how to transform the FTC into a more modern, innovation-friendly regulatory agency. I look forward to your questions.</t>
   </si>
   <si>
@@ -1006,18 +943,12 @@
     <t xml:space="preserve">    Mr. Burgess. Well, welcome back, and thank you all for your patience and taking time to be here today.    We will move into the third panel for today's hearing. We are going to follow the same format as the first and second panel. Each witness will be given 5 minutes for an opening statement, followed by questions from members.    For our third panel we have the following witnesses: Mr. Richard Hendrickson, the President and CEO of Lifetime Products; Dr. Greg O'Shanick, President and Medical Director for the Center for Neurorehabilitation Services; Mr. Steven Shur, President of Travel Technology Association; Mr. Robert Arrington, President of the National Funeral Directors Association; Mr. John Breyault, Vice President of Public Policy, Telecommunications, and Fraud, the National Consumers League; Mr. Gil Genn, Maryland Sports and Entertainment Industry Coalition; Ms. Jamie Pena, Vice President, Revenue Strategy and Global Distribution, Omni Hotels &amp; Resorts, and Mr. Michael Best, Senior Policy Advocate of Consumer Federation of America.    We appreciate you all being here today.    We will begin the panel with you, Mr. Hendrickson. You are recognized for 5 minutes to give a summary of your opening statement, please.</t>
   </si>
   <si>
-    <t>Hendrickson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hendrickson. Thank you, Chairman Burgess and Ranking Member Schakowsky, committee members.    As CEO of Lifetime Products, it is an honor to appear before you today and address the Reinforcing Made-in-America Act of 2016, H.R. 5092.    Lifetime Products is a wonderful example of the American dream made in the USA. It was started 30 years ago by a father who wanted to build a better basketball hoop for his children. Today we employ over 1900 people in the U.S. and work hard every day to keep those jobs here in the United States of America. It isn't easy, as you can imagine, when your key competitors are taking advantage of lower labor and material cost in other countries around the world. However, by investing large amounts of capital, vertically-integrating our factory, we have been able to keep the majority of our manufacturing jobs here in the U.S.    Data shows that 78 percent of Americans, if given the choice, prefer to purchase made-in-the-USA products. Consumers want to support American manufacturing and believe that American-made goods are generally of higher quality and supportive of American jobs.    Since 1997, the Federal Trade Commission has enforced a stringent national labeling standard that requires products marked ``Made in the USA'' to be all, or virtually all, manufactured in the U.S. While providing the necessary consumer protection, it also gives companies a slight, but necessary amount of leeway, permitting them to import negligible or de minimis components for their products. However, the manufacturing process must always take place in the U.S., and vital components for the product's core function must also be domestically-produced.    Today, currently, one of a state's laws has upended really the FTC labeling system. A 50-year-old California State statute held that products bearing the ``Made in USA'' label had to be composed of 100 percent domestic content. This really rendered the USA FTC label impossible for many companies like us to use.    Companies like Lifetime had no idea that we were in violation of the State's labeling law and were unexpectedly sued, which resulted in multimillion dollar settlements based on infractions as insignificant as a 50-cent net suspended from a $500 made-in-the-USA basketball system.    Now, as companies try to choose whether to follow the FTC's federal guidelines or the California State statute, many USA companies, like ourselves, have decided not to use the made-in-USA label mark at all on the majority of our products, even though they are, indeed, made in the USA. And this really leaves the consumer ill-informed with regard to a product's origin.    Despite continued efforts over the last 3 years to amend the California statute, it is now even more confusing, inviting more opportunities for the California State statute and the FTC rule to clash. The FTC made-in-the-USA standard is robust, it is meaningful, it is difficult to meet. It challenges manufacturers to source and manufacture domestically and it conveys a clear unified message to consumers in the United States and around the world.    The FTC's made-in-the-USA standard requires significant investment in American manufacturing and in American jobs. As such, when consumers choose products marked ``made in the USA,'' they can feel confident that they are supporting American manufacturing and American jobs.    About 15 years ago, our main competitor in the basketball industry decided to pack up and leave the U.S. They relocated to Asia, began lowering prices with less-expensive labor and materials. After a great deal--and I mean a great deal--of deliberation, we chose to stay. We stayed committed to made in the USA. Had we known then that the FTC standard did not create a unified standard and the potential of California lawsuits to follow, we may have made a different decision at that time. Why invest millions in capital to manufacture in the U.S. if you are not allowed to tell the consumer ``made in the USA''?    Thank you for your time. Thank you for the time you give to serve our country, and thank you for your efforts in helping keep manufacturing alive in the United States of America.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The Chair thanks the gentleman.    Dr. O'Shanick, you are recognized for 5 minutes for your opening statement, please.</t>
   </si>
   <si>
-    <t>O'Shanick</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. O'Shanick. Thank you. Chairman Burgess, Ranking Member Schakowsky, and members of the subcommittee, good afternoon and thank you for the opportunity to provide testimony on the important issue of protecting our nation's youth from concussion. I commend Chairman Upton and Ranking Member Pallone and members of the committee for their ongoing investigation into concussion.    As stated, my name is Dr. Greg O'Shanick, and I am the president and medical director of the Center for Neurorehab Services in Richmond, Virginia. I am also the medical director emeritus of the Brain Injury Association of America, the nation's oldest and largest brain injury patient advocacy organization.    Today I am here to discuss the Youth Sports Concussion Act, H.R.4460, sponsored by Congressman Bill Pascrell, Jr., and Congressman Thomas J. Rooney, Co-Chairs of the Congressional Brain Injury Task Force.    The Brain Injury Association of America and 35 organizations submitted a letter to the committee in support of this legislation. I would like to submit this letter for the record.    [The information appears at the conclusion of the hearing.]</t>
   </si>
   <si>
@@ -1027,52 +958,34 @@
     <t xml:space="preserve">    Mr. Burgess. The Chair thanks the gentleman for his testimony.    Mr. Shur, you are recognized for 5 minutes for your opening statement, please.</t>
   </si>
   <si>
-    <t>Shur</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shur. Thank you, Chairman Burgess, Ranking Member Schakowsky, and all members of the subcommittee.    My name is Steve Shur. I am the president of Travel Tech. The association represents online travel agents, global distribution systems, and short-term rental platforms.    Our online travel agent members, OTAs as they are known, have created the marketplace where consumers can shop for all aspects of travel in a single platform. Travelers have benefitted immeasurably from the ability to search, compare, and book hotels through the technology created and operated by the members of Travel Tech.    When suppliers have to compete in a dynamic marketplace, consumers benefit in the form of lower prices and better service offerings. The scale and popularity of third-party online booking sites illustrates consumers' preferences and confidence. Last year Expedia helped travelers book over 200 million room nights. Trip Advisor reaches 340 million unique monthly visitors and hosts more than 350 million reviews. Priceline partners with over 370,000 hotels in 170 countries.    Integrity in the hotel booking marketplace is critical. Without it, companies that fail to deliver reliable customer service and seamless transactions with their hotel partners will not survive. OTAs thrive on ensuring that customers have a positive experience every time they book. Each of our members has 24-hour customer service teams ready to assist travelers who choose to book on their platforms.    Travel Tech strongly opposes H.R. 4526 on all fronts. We categorically reject the premise of a need for such legislation. This bill would impose new, burdensome requirements on online travel sites without any justification for doing so. Online travel companies would needlessly have to provide additional notification to the consumer that they are ``not affiliated with'' the hotel with which the consumer is about to book his stay. However, online travel companies are absolutely affiliated with hotels. Hotels willingly sign contracts with OTAs to take advantage of this very effective marketing and distribution channel. Further, it is unclear why this heightened standard for intermediaries or distributors is needed for online hotel bookings, but not for the online purchase of any other goods.    H.R. 4526 would authorize the FTC to study whether the new disclosure requirements are necessary and if consumers are, indeed, confused about where they are booking their hotel rooms. It seems illogical to apply new, onerous regulations on American businesses without a demonstrable record of consumer harm, while simultaneously acknowledging that a study is needed to confirm whether these regulations are necessary in the first place.    H.R. 4526 would amend the Restore Online Shoppers' Confidence Act, a bill that was passed several years ago to address a practice in which people were truly harmed by companies sharing credit card information with other entities without their knowledge or consent. Associating an entire reputable industry with this activity addressed in the Restore Online Shoppers' Confidence Act is a gross misappropriation of the facts and an assault on our industry's reputation and integrity.    There is no tangible record of consumer complaints justifying any part of this legislation, only unsubstantiated claims offered by the hotel industry in an effort to scare consumers into booking direct. We have all seen the book-direct advertising campaigns by the hotel chains. The motivations here are clear.    The hotel lobby claims that 15 million Americans are scammed every year by third-party booking sites. Fifteen million, that is 41,000 Americans every day showing up at a hotel, only to find that their reservation was lost and that they were scammed. Where are these numbers coming from? Where is the evidence?    The FTC has no record that such complaints have been lodged. The nation's leading consumer groups are not aware of fraud, certainly not at this level. Bloggers and reporters who root out issues like this have no record of such activity taking place.    According to the hotel lobby, 41,000 people every day have been scammed by third-party booking sites, and the only place you have heard about this problem is from the trade association representing the largest hotel chains. The hotel lobby is fabricating a problem as a means to boost its members' margins by scaring consumers into thinking that booking anywhere other than direct is risky and riddled with fraud. It is just not true. It is insulting to consumers.    Any government action in this regard should be predicated on a tangible record of consumer harm, rather than anecdotes provided by a trade association that wants to dismantle the transparency of a marketplace where consumers can compare prices and services across brands.    I urge the members of the subcommittee not to wade into what is essentially a contractual battle between the hotel industry and their own distribution partners. OTAs are proud to offer consumers a safe, effective, and transparent marketplace where hotel properties compete on price and service.    Thank you for the opportunity to speak in opposition to H.R. 4526. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The Chair thanks the gentleman for his testimony.    Mr. Arrington, you are recognized for 5 minutes for an opening statement, please.</t>
   </si>
   <si>
-    <t>Arrington</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Arrington. Mr. Chairman and members of the subcommittee, thank you for the opportunity to testify this afternoon.    I am Bob Arrington, founder and president of Arrington Funeral Directors in Jackson, Tennessee. I am honored to be serving as the president of the National Funeral Directors Association, referred to as NFDA.    Over the years, I have served my community and my profession by taking on leadership roles with the Tennessee Funeral Directors Association. I was appointed to a 4-year term by the governor of the State of Tennessee to serve on the Tennessee State Board of Funeral Directors and Embalmers, and I served the last year of my term as president of this State regulatory board.    I am testifying today on behalf of the nearly 20,000 funeral directors who are members of NFDA. Together, we represent more than 10,000 funeral homes in the United States and 39 countries worldwide.    NFDA is the world's leading and largest funeral service association, a trusted leader, a beacon for ethics, and the strongest advocate for the profession and the families we are called to serve.    I want to thank Congressman Rush for his efforts to protect consumers. Like the Congressman, NFDA members were horrified at the illegal activity that was discovered in 2009 at Burr Oak Cemetery in Illinois. In the findings section of this legislation, two other incidents involving a cemetery and a crematory are mentioned, Tri-State Crematory in Georgia and Menorah Gardens in Florida.    There is no doubt these were criminal and vile acts by a few bad apples, but I must state my profession, the profession that I love and have dedicated my life to, should not be cast in a disparaging light because of three incidents in the last 15 years which were handled appropriately by each state.    NFDA works closely with state associations to improve state laws governing the profession, ensuring they reflect the evolving needs of consumers and the funeral professionals that serve them. Over the last several years, states have continued to provide oversight and increased protections for the deceased, their families, and the providers of funeral services.    Therefore, it is the belief of the NFDA and its members that state regulation of the funeral profession is sufficient. There is no need for further regulation by the federal government at this time.    While we applaud Congressman Rush's concern for grieving families, a concern that is equal to our own, we oppose H.R. 5212 because we believe it is not the best way to address the illegal and immoral activities I previously described.    Next year the FTC is scheduled to begin a comprehensive review of the funeral rule, something that happens on a regular basis. NFDA feels this review offers a better alternative to H.R. 5212, which would merely expand a rule that is already flawed. In NFDA's opinion, the funeral rule needs to be redesigned and redrafted, not simply expanded.    While the funeral rule offers important consumer protections, it is a not a one-stop-shop solution. When the FTC reviews the funeral rule next year, everyone who has a concern about the funeral rule will be able to make their voice heard. NFDA is confident that the review will produce an updated funeral rule that protects consumers in today's market. And in NFDA's opinion, the funeral rule is far too important to be expanded without a full exploration of the complex issues involved, something that may not happen in Congress.    NFDA is dedicated to ensuring this review process will result in positive changes for both families and funeral service. We wholeheartedly agree with Congressman Rush that changes need to be made, but we feel the funeral rule needs to be redesigned and clarified to address the realities of the funeral market in 2016. It would be better to do this through a comprehensive rulemaking process where all interested parties can be heard rather than through a congressional mandate.    I am sure many of you know funeral directors in your community. You probably have been served by some. What we do is for the good of others, not for the good of us. We dedicate ourselves that families have one mother that is going to die one time and we are going to have one funeral. Our dedication is to do that one time because we have only one opportunity. The last thing we want is to do that wrong.    I thank you for the opportunity to be here, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The Chair thanks the gentleman for his testimony.    The Chair recognizes Mr. John Breyault for 5 minutes for your opening statement, please.</t>
   </si>
   <si>
-    <t>Breyault</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Breyault. Good afternoon, Chairman Burgess, Ranking Member Schakowsky, and members of the subcommittee.    My name is John Breyault, and I am the vice president of public policy, telecommunications, and fraud at the National Consumers League.    Founded in 1899, NCL is the nation's pioneering consumer organization. Our nonprofit mission is to advocate for social and economic justice on behalf of consumers and workers in the United States and abroad.    Thank you for giving us the opportunity to speak today on the important issue of live event ticketing fairness. The modern ticket-buying experience is rigged and it is too often an exercise in frustration for millions of fans that simply want to see their favorite artist or sports teams at a fair price.    Consumers trying to buy tickets at general on sale to popular events are almost always competing without knowing it against secret insider sales and scalpers who use special software to electronically cut in line. This leads to considerable frustration when consumers are shut out of the box office and anger when resale markets immediately have hundreds of tickets available at inflated prices.    A little publicized fact about tickets is that artists, promoters, and venues often make only a small percentage of tickets available to the general public. For example, of the 750,000 tickets for Adele's 2016 North American Tour, fewer than 300,000 were made available to the general public.    According to the New York Attorney General, less than half, 46 percent, of tickets to the most popular events are ever made available to public on sale. Most tickets, 54 percent on average, are diverted to fan club and premium credit card presales and holds for industry insiders. These diverted tickets often make their way to the secondary market, where they typically fetch a price far above face value.    For example, at a January 2013 Justin Bieber show in Nashville, Tennessee, 90 percent of the tickets were set aside for presales and insiders. Many of the tickets allocated to Bieber's management company were later listed on ticket resale Web sites at hugely-inflated prices.    These examples are just the tip of the iceberg. Artists of every type from rap to rock, country to comedy, hold back tickets. We think the system is rigged against average consumers. We don't believe artists should have the right to hide how many tickets are to be made available to the general public, so they can trumpet quick saleouts that hype their events; that they, then, often take advantage of their fans by anonymously reselling tickets, often for several multiples of face value, while blaming scalpers for their fans' inability to get tickets, is the height of Chutzpah.    Undisclosed ticket allocations are not the only way that consumers find themselves at a disadvantage at the box office. Fans must also compete against ticket brokers employing sophisticated ticket-buying software known as bots. Bots allow brokers to purchase tickets at lightning-fast speeds, helping them acquire hundreds or thousands of tickets in minutes or even seconds. These are, then, listed on resell Web sites, often at outrageous markups.    Evidence of rampant abuses by ticket bots abound. One bot was used to purchase 1,012 tickets in one minute to U2's July 2015 show at Madison Square Garden. That same day two bots were used to purchase more than 15,000 tickets in 24 hours for several performances on the same U2 tour.    Between 2002 and 2009, one bot operator, Wiseguys Tickets, Inc., bought more than 1.5 million tickets and netted more than $25 million in profit when tickets were resold to brokers who, then, resold them to fans.    Ticketmaster has stated that ticket bots can account for as much as 90 percent of the traffic to its Web site and 60 percent of sales for the most desirable seats to some shows.    To address the broken ticket marketplace for popular concert tours and many sporting events nationwide, congressional action is sorely needed. Both the BOSS Act and the BOTS Act crack down on robotic ticket-buying software. However, only Congressman Pascrell's BOSS Act offers comprehensive solutions that collectively will significantly improve fans' ticket-buying experiences. By requiring greater transparency in the primary ticketing market, prohibiting egregious broker practices like undisclosed speculative selling, and limiting the ability of connected insiders to surreptitiously divert tickets to the secondary market, the BOSS Act would lead to beneficial reforms in the ticketing marketplace.    To conclude, it is clear to us, and to millions of fans, that the ticket-buying experience is rigged. All too often buying a ticket is an exercise in frustrations for fans that simply want to see their favorite artist or sports teams at a fair price. To this end, we urge the subcommittee to support Congressman Pascrell's common-sense pro-consumer bill.    Chairman Burgess and Ranking Member Schakowsky, thank you again for inviting NCL to speak today. I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The Chair thanks the gentleman for his testimony.    Mr. Genn, you are recognized for 5 minutes for your opening statement, please.</t>
   </si>
   <si>
-    <t>Genn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Genn. Thank you, Chairman Burgess, Ranking Member Schakowsky, members of the subcommittee. Thank you for allowing me to testify in support of H.R. 5104, the BOTS Act.    I am testifying today on behalf of the Maryland Sports and Entertainment Industry Coalition, a coalition of diverse players in the live entertainment business, including professional sports teams, large and small musical and theatrical venues, and providers of live entertainment shows.    The sports and entertainment industry is a huge source of pride in Maryland, and hundreds of millions of dollars have been invested in venues, sporting events, concerts, and other live productions in the State, significantly contributing to the employment of thousands of Maryland residents.    Our coalition brings some experience to your debate, as we were instrumental in recently enacting legislation in Maryland similar to the BOTS Act. While we are grateful to our state legislatures for enacting that legislation, we recognize the limits of its effectiveness.    The underground industry that uses BOTS to hack ticketing Web sites is clearly an interstate business. Interstate commerce transactions require federal solutions, and H.R. 5104 is a substantial solution to the problem of ticket bots.    As you know, for most live entertainment events, there is a restriction on the number of seats one purchaser can buy, usually in the four-to-eight-ticket range. It is often the case that during the opening minutes of the on sale for a championship game or a premier entertainment show the Web site of the ticketing agent is overwhelmed by hundreds or thousands of requests for tickets placed by computer programs pretending to be real fans.    These bots, as they are called, seize up substantial portions of the ticket inventory. Their software is sophisticated enough to recognize which tickets are the best tickets that wills fetch the highest resale price on the secondary market. Once the botsters have the tickets they want, they release the others back into the on-sale pool.    When people use bots to violate the terms and conditions of ticketing Web sites to buy up large blocks of tickets and resell them at a markup on the secondary market, they are effectively stealing that investment. H.R. 5104 at least provides a clear civil remedy for this abuse. The bipartisan, pro-consumer BOTS Act would create a dual enforcement mechanism to stop that theft. It would make it an unfair and deceptive practice to use a bot to hack a ticketing Web site and allow the FTC to enforce against people who do. It would also create a private right of action by which any affected party, an artist team, an agent, a fan could sue a botster under a clear federal standard and recover damages.    Bruce Springsteen, Paul McCartney, Taylor Swift, and others don't come to Washington, D.C., every year or your congressional districts. It is unfair to the younger fans who have discovered these legends to have to pay exorbitant prices to secondary ticket sellers when they are also concerned about their first job salary, saving for college, even paying off student loans, and other life expenses.    We are hopeful that the dual threat of FTC enforcement and private litigation will serve as a deterrent against people who use bots and help restore the ability of real fans to get good tickets at face value.    This hearing is also examining legislation that more extensively regulates the primary ticketing market, requiring inventory disclosures of proprietary business information and prohibiting restrictions on resale of tickets. Many states have looked at adopting such policies, and nearly all of them have rejected them. Legislators realize that these bills, while well-intentioned, would only empower scalpers at the expense of real fans.    In recent years, Maryland considered and rejected legislation that would prohibit restrictions on the resale of tickets from the primary ticket-seller. One of those restrictive provisions would have prohibited making tickets non-transferrable. This is similar to what is in Congressman Pascrell's draft on page 5, lines 12 through 15.    Think of all the times when you may have attended an event with the Speaker of the House, the Cabinet officials, or even the President. One of the reasons these tickets are non-transferrable is because of security. Taking away the right of the primary ticket-seller to restrict tickets could lead to anyone getting those tickets on the secondary market. In such a case, it would be a very bad policy for obvious security reasons.    I hope Congress will enact H.R. 5104, the BOTS Act, and refrain from adding controversial and burdensome measures to regulate the primary ticketing marketplace.    Once again, thank you, Congressmen Blackburn and Tonko for sponsoring and the cosponsors for introducing this legislation.    I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The Chair thanks the gentleman for his testimony.    The Chair now takes great pleasure in recognizing a constituent, Ms. Pena, 5 minutes for your opening statement, please.</t>
   </si>
   <si>
-    <t>Pena</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Pena. Thank you. Chairman Burgess, Ranking Member Schakowsky, and members of the subcommittee, thank you for the opportunity to speak to you today about addressing deceptive hotel booking Web sites.    My name is Jamie Pena, the vice president of revenue strategy and global distribution for Omni Hotels, located in Dallas, Texas. As Mr. Burgess mentioned, I am also a proud constituent of Chairman Burgess.    I am here today representing the over 18,000 employees and associates of Omni Hotels. Omni Hotels is a proud member of the American Hotel and Lodging Association, which represents 2 million employees of the lodging industry.    It is an honor to appear here before your committee to discuss the need for Congress to pass the Stop On-Line Booking Scams Act, H.R. 4526. I would like to thank the 18 bipartisan cosponsors for their leadership on this issue as well.    I am here today to discuss the growing problem of deceptive hotel booking Web sites that are scamming customers and the need for legislation to address this issue. The ever-evolving online channels for booking hotel rooms from desktops to mobile phones and internet-enabled devices like tablets have transformed the way guests book their hotel rooms and at the same time created new customer-facing business models.    Amid these transformations, the lodging industry continues to put guests and customers first. We are focused on educating consumers on how to avoid being victimized by these scam Web sites.    It is with that purpose that we can bring to the committee the growing problem of misleading scam Web sites that deceive customers into thinking they are making a legitimate booking directly with the hotel company. They use pictures and graphics and other unique images from the hotel. They even set up 800-number call centers where the guest calls and the agent answers in a way that leads the customer to believe they are talking directly to the hotel.    Further, as customers increasingly move to mobile booking, smaller screens make it even more difficult for them to discern between the hotel's Web site and the URL of these scammed Web sites. Customers are definitely harmed and the result is we get different complaints from lost reservations, incorrect accommodations, loss of hotel loyalty program benefits, and simply the customers are confused.    By AHLA's estimates, these scams are impacting 15 million online bookings a year in the U.S. Omni customers have certainly fallen victim to these scams. I have two specific examples that I would like to share with you that are very recent.    One is a guest that was booking at the Omni Parker House in Boston. They called our call center to add an accompanying guest name to their reservation that she thought she booked on omnihotels.com. However, our agent was unable to assist her because, unknowingly, she had booked with a third party. She was very upset that her credit card information was in the hands of strangers since she thought she had booked directly with our hotel.    Another example comes from the Omni Houston Hotel. We had a similar scenario where the guest realized after the fact that they had clicked on a link and booked their reservation with one of these third-party rogue Web sites. To her surprise, it was not booked direct with us. I was able to get the 800 number from the Web site myself that the lady had spoken with, and the agent even continued to insist to me that he was an agent of Omni Hotels, which he was not.    These are not just problems for customers trying to book with Omni. No ordinary customer would be able to realize that these are fake Web sites. And make no mistakes, these Web sites are designed to deceive consumers.    Thankfully, the hotel industry is one of many voices concerned about this growing problem. The Federal Trade Commission, AAA, and the Better Business Bureau have all issued formal alerts warning consumers of these scams, and the hotel industry is also working on better methods of tracking the expansive nature of this program.    Many times the instances where consumers are frauded are not formally reported because the front desk agents just take care of the customer and they just make it right for them at their expense.    Congress has a role. So, to better quantify this issue, we are beginning a pilot program in three states to better train the front desk personnel to report these instances of fraud directly to the states' attorney general office. But Congress has a role to play as well, and that is why I am here today to express our support for H.R. 4526.    This bill is narrowly tailored to address only the unscrupulous sites that purposely deceive the customers. The bill simply requires online travel Web sites who do not have direct contracts with hotels to clearly disclose that they are not the actual hotel property.    Because it is directed only at non-affiliated third-party Web sites, it excludes our partner OTAs. These OTAs we have direct relationships with design their Web sites in a manner that distinguishes their site from our hotels. In addition, our partner OTAs are very quick to address instances of confusion and they are very transparent on their Web sites that they are not the actual hotel.    As you can see, H.R. 4526 is a targeted bill to address a serious problem for U.S. consumers.    Thank you for the opportunity to testify here, and I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The Chair thanks the gentlelady for her testimony.    Mr. Best, you are recognized for 5 minutes, please.</t>
-  </si>
-  <si>
-    <t>Best</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Best. Thank you, Chairman Burgess, Ranking Member Schakowsky, and other members of the Commerce, Manufacturing, and Trade Subcommittee.    I am Michael Best, senior policy advocate for the Consumer Federation of America. CFA is a nonprofit association of more than 250 pro-consumer, not-for-profit groups that was established in 1968 to advance the consumer interest through research, advocacy, and education.    The Funeral Consumers Alliance is a nonprofit organization with more than 70 local educational groups that was founded in 1963 to protect the consumer's right to choose a meaningful and affordable funeral. CFA and FCA appreciate this opportunity to provide testimony on H.R. 5212, the Bereaved Consumers Bill of Rights Act of 2016. I would like to outline our support of H.R. 5212 and, also, urge you to call on the Federal Trade Commission to modernize its funeral rule.    For consumers, funeral and cemetery services are not discretionary. Everyone will die and require performance of some kind of service, and it will be a large expense for many households. In 2014, the median cost of a funeral with viewing and burial was $7,181. Yet, according to a 2011 study, about half of all households in the country would have difficulty paying an unexpected expense of $2,000. This expense is also often incurred at a time when we are all especially vulnerable and disinclined to undertake a careful search involving different types of services and service providers.    The bill would, among other things, extend the consumer benefits of the FTC funeral rule to all death-related businesses and codify that rule, establish minimum standards and a culture of accountability for the cemetery industry, and give the FTC and states attorneys general additional tools to ensure the marketplace for funeral and burial services is truly competitive.    We are aware of and not unsympathetic to the claims of some nonprofit providers of cemetery services, particularly individual churches, that they would have difficulty complying with some requirements of the bill. Therefore, we did not oppose the amendment that sought to ease requirements on some of the small nonprofits.    We also would not object to the FTC ensuring that any rules that were written were informed by an understanding of the different types of service providers, from large for-profits at one end of the continuum to individual churches operating nonprofit services at the other end.    Both CFA and FCA support H.R. 2212 because it would provide stronger and broader protection to consumers of funeral and burial services. High cost, vulnerable consumers, and changing markets are also why the FTC needs to modernize its funeral rule to include online disclosures. The rule worked well for a long time and it was even supported by industry.    Randall L. Earl, in his capacity as an elected officer of the National Funeral Directors Association, testified before this committee about a previous version of H.R. 2212 stating ``Many NFDA members have reported that the rule has made them better businessmen and women.''    But the rule needs to reflect how consumers now shop. The rule requires written disclosures, but as far back as 2010, 97 percent of consumers used the internet when searching for local products or services. The FTC, in its consumer information web pages, also touts internet search as a way to get the best product and deal.    The cost to consumers of antiquated disclosure requirements of the funeral rule were evident in a survey of funeral home services undertaken and released last year by CFA and FCA. The price information we needed to accurately price services was found on the Web site of only about one-quarter, 38, of the 150 funeral homes we surveyed.    In the absence of a requirement to offer complete online disclosures, some funeral businesses that do post prices online mislead consumers and directly contradict the intent of the funeral rule. Those businesses in our survey that did post prices online usually posted only all-inclusive packages and failed to alert consumers that they have the right to buy a la carte and to decline any unwanted goods or services.    If the same funeral home offered this incomplete information on a paper price list, that would be a violation of the federal rule. But, because the rule does not contemplate online transactions, these omissions are legal.    In our study, prices for the same funeral services within individual areas almost always varied by at least 100 percent, and often varied by more than 200 percent. For example, right here in D.C., prices among 15 funeral homes for a full-service funeral ranged from $3,770 to $13,800. That variation would be difficult to sustain at a market with easy-to-research prices.    Thank you for the opportunity to support H.R. 2212 and explain why the federal rule needs to be updated, and I look forward to your questions.</t>
@@ -1642,11 +1555,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1666,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1694,11 +1603,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1718,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1744,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1770,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1796,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>22</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1822,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1850,11 +1747,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1874,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1902,11 +1795,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1926,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1952,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1978,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2004,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
         <v>31</v>
-      </c>
-      <c r="H16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2030,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2056,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2082,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2108,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2134,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2162,11 +2035,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2186,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2212,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2238,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2264,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2290,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2316,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2342,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2370,11 +2227,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2394,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2420,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2446,13 +2297,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2472,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2498,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2526,11 +2371,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2550,13 +2393,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2576,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2602,13 +2441,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2628,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2654,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2680,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2706,13 +2537,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
         <v>59</v>
-      </c>
-      <c r="H43" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2732,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2758,13 +2585,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2784,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
-      </c>
-      <c r="G46" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2810,13 +2633,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2836,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
-      </c>
-      <c r="G48" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2862,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
-      </c>
-      <c r="G49" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2890,11 +2707,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2914,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>74</v>
-      </c>
-      <c r="G51" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2940,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G52" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2966,13 +2777,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
-      </c>
-      <c r="G53" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2992,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
-      </c>
-      <c r="G54" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3018,13 +2825,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
-      </c>
-      <c r="G55" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3044,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
-      </c>
-      <c r="G56" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3070,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
+        <v>67</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
         <v>74</v>
-      </c>
-      <c r="G57" t="s">
-        <v>75</v>
-      </c>
-      <c r="H57" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3096,13 +2897,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3122,13 +2921,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>74</v>
-      </c>
-      <c r="G59" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3148,13 +2945,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
-      </c>
-      <c r="G60" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3174,13 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>74</v>
-      </c>
-      <c r="G61" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3200,13 +2993,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
-      </c>
-      <c r="G62" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3226,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>74</v>
-      </c>
-      <c r="G63" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3254,11 +3043,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3278,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3304,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
-      </c>
-      <c r="G66" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3330,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3356,13 +3137,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
-      </c>
-      <c r="G68" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3382,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3408,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
-      </c>
-      <c r="G70" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3434,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3460,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
-      </c>
-      <c r="G72" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3486,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3512,13 +3281,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
-      </c>
-      <c r="G74" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3538,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3564,13 +3329,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
-      </c>
-      <c r="G76" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3590,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3618,11 +3379,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3642,13 +3401,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>104</v>
-      </c>
-      <c r="G79" t="s">
-        <v>105</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3668,13 +3425,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
-      </c>
-      <c r="G80" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3694,13 +3449,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>104</v>
-      </c>
-      <c r="G81" t="s">
-        <v>105</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3720,13 +3473,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
-      </c>
-      <c r="G82" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3746,13 +3497,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>104</v>
-      </c>
-      <c r="G83" t="s">
-        <v>105</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3772,13 +3521,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
-      </c>
-      <c r="G84" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3798,13 +3545,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>104</v>
-      </c>
-      <c r="G85" t="s">
-        <v>105</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3826,11 +3571,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3850,13 +3593,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>104</v>
-      </c>
-      <c r="G87" t="s">
+        <v>96</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
         <v>105</v>
-      </c>
-      <c r="H87" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3878,11 +3619,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3902,13 +3641,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
-      </c>
-      <c r="G89" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3928,13 +3665,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
-      </c>
-      <c r="G90" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3954,13 +3689,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
-      </c>
-      <c r="G91" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3982,11 +3715,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4006,13 +3737,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>120</v>
-      </c>
-      <c r="G93" t="s">
-        <v>121</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4032,13 +3761,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
-      </c>
-      <c r="G94" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4058,13 +3785,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>120</v>
-      </c>
-      <c r="G95" t="s">
-        <v>121</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4084,13 +3809,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
-      </c>
-      <c r="G96" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4110,13 +3833,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>120</v>
-      </c>
-      <c r="G97" t="s">
-        <v>121</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4136,13 +3857,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G98" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4162,13 +3881,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>120</v>
-      </c>
-      <c r="G99" t="s">
-        <v>121</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4190,11 +3907,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4214,13 +3929,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>130</v>
-      </c>
-      <c r="G101" t="s">
-        <v>131</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4240,13 +3953,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
-      </c>
-      <c r="G102" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4266,13 +3977,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>130</v>
-      </c>
-      <c r="G103" t="s">
-        <v>131</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4292,13 +4001,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
-      </c>
-      <c r="G104" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4318,13 +4025,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>130</v>
-      </c>
-      <c r="G105" t="s">
-        <v>131</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4344,13 +4049,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
-      </c>
-      <c r="G106" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4370,13 +4073,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>130</v>
-      </c>
-      <c r="G107" t="s">
-        <v>131</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4396,13 +4097,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
-      </c>
-      <c r="G108" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4422,13 +4121,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>130</v>
-      </c>
-      <c r="G109" t="s">
-        <v>131</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4450,11 +4147,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4474,13 +4169,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>142</v>
-      </c>
-      <c r="G111" t="s">
-        <v>143</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4500,13 +4193,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
-      </c>
-      <c r="G112" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4526,13 +4217,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>142</v>
-      </c>
-      <c r="G113" t="s">
-        <v>143</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4552,13 +4241,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
-      </c>
-      <c r="G114" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4578,13 +4265,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>142</v>
-      </c>
-      <c r="G115" t="s">
-        <v>143</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4604,13 +4289,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
-      </c>
-      <c r="G116" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4630,13 +4313,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>142</v>
-      </c>
-      <c r="G117" t="s">
-        <v>143</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4658,11 +4339,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4682,13 +4361,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
-      </c>
-      <c r="G119" t="s">
-        <v>152</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4708,13 +4385,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
-      </c>
-      <c r="G120" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4734,13 +4409,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
-      </c>
-      <c r="G121" t="s">
-        <v>152</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4760,13 +4433,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
-      </c>
-      <c r="G122" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4786,13 +4457,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
-      </c>
-      <c r="G123" t="s">
-        <v>152</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4812,13 +4481,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
-      </c>
-      <c r="G124" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4838,13 +4505,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
-      </c>
-      <c r="G125" t="s">
-        <v>152</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4864,13 +4529,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
-      </c>
-      <c r="G126" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4890,13 +4553,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
-      </c>
-      <c r="G127" t="s">
-        <v>152</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4916,13 +4577,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
-      </c>
-      <c r="G128" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4942,13 +4601,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
-      </c>
-      <c r="G129" t="s">
-        <v>152</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4970,11 +4627,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4994,13 +4649,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>165</v>
-      </c>
-      <c r="G131" t="s">
-        <v>166</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5020,13 +4673,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
-      </c>
-      <c r="G132" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5046,13 +4697,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>165</v>
-      </c>
-      <c r="G133" t="s">
-        <v>166</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5072,13 +4721,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
-      </c>
-      <c r="G134" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5098,13 +4745,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>165</v>
-      </c>
-      <c r="G135" t="s">
-        <v>166</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5124,13 +4769,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
-      </c>
-      <c r="G136" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5150,13 +4793,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>165</v>
-      </c>
-      <c r="G137" t="s">
-        <v>166</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5176,13 +4817,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
-      </c>
-      <c r="G138" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5202,13 +4841,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>165</v>
-      </c>
-      <c r="G139" t="s">
-        <v>166</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5228,13 +4865,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
-      </c>
-      <c r="G140" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5254,13 +4889,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>165</v>
-      </c>
-      <c r="G141" t="s">
-        <v>166</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5280,13 +4913,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
-      </c>
-      <c r="G142" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5306,13 +4937,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
+        <v>152</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
         <v>165</v>
-      </c>
-      <c r="G143" t="s">
-        <v>166</v>
-      </c>
-      <c r="H143" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5332,13 +4961,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
-      </c>
-      <c r="G144" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5358,13 +4985,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>165</v>
-      </c>
-      <c r="G145" t="s">
-        <v>166</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5384,13 +5009,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
-      </c>
-      <c r="G146" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5410,13 +5033,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>165</v>
-      </c>
-      <c r="G147" t="s">
-        <v>166</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5436,13 +5057,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
-      </c>
-      <c r="G148" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5462,13 +5081,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>165</v>
-      </c>
-      <c r="G149" t="s">
-        <v>166</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5488,13 +5105,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
-      </c>
-      <c r="G150" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5514,13 +5129,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>165</v>
-      </c>
-      <c r="G151" t="s">
-        <v>166</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5540,13 +5153,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
-      </c>
-      <c r="G152" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5566,13 +5177,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>165</v>
-      </c>
-      <c r="G153" t="s">
-        <v>166</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5594,11 +5203,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5618,13 +5225,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>191</v>
-      </c>
-      <c r="G155" t="s">
-        <v>192</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5644,13 +5249,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
-      </c>
-      <c r="G156" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5670,13 +5273,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>191</v>
-      </c>
-      <c r="G157" t="s">
-        <v>192</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5696,13 +5297,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
-      </c>
-      <c r="G158" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5722,13 +5321,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>191</v>
-      </c>
-      <c r="G159" t="s">
-        <v>192</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5748,13 +5345,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
-      </c>
-      <c r="G160" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5774,13 +5369,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>191</v>
-      </c>
-      <c r="G161" t="s">
-        <v>192</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5800,13 +5393,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>30</v>
-      </c>
-      <c r="G162" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5826,13 +5417,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>191</v>
-      </c>
-      <c r="G163" t="s">
-        <v>192</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5852,13 +5441,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
-      </c>
-      <c r="G164" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5878,13 +5465,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>191</v>
-      </c>
-      <c r="G165" t="s">
-        <v>192</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5904,13 +5489,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
-      </c>
-      <c r="G166" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5930,13 +5513,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>191</v>
-      </c>
-      <c r="G167" t="s">
-        <v>192</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5956,13 +5537,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
-      </c>
-      <c r="G168" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5982,13 +5561,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>191</v>
-      </c>
-      <c r="G169" t="s">
+        <v>177</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
         <v>192</v>
-      </c>
-      <c r="H169" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6008,13 +5585,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
-      </c>
-      <c r="G170" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6034,13 +5609,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>191</v>
-      </c>
-      <c r="G171" t="s">
-        <v>192</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6060,13 +5633,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>30</v>
-      </c>
-      <c r="G172" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6086,13 +5657,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>191</v>
-      </c>
-      <c r="G173" t="s">
-        <v>192</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6112,13 +5681,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>30</v>
-      </c>
-      <c r="G174" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6138,13 +5705,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>191</v>
-      </c>
-      <c r="G175" t="s">
-        <v>192</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6166,11 +5731,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>12</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6190,13 +5753,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>215</v>
-      </c>
-      <c r="G177" t="s">
-        <v>216</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6216,13 +5777,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>30</v>
-      </c>
-      <c r="G178" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6242,13 +5801,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>215</v>
-      </c>
-      <c r="G179" t="s">
-        <v>216</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6268,13 +5825,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
-      </c>
-      <c r="G180" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6294,13 +5849,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>215</v>
-      </c>
-      <c r="G181" t="s">
-        <v>216</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6320,13 +5873,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
-      </c>
-      <c r="G182" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6346,13 +5897,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>215</v>
-      </c>
-      <c r="G183" t="s">
-        <v>216</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6372,13 +5921,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
-      </c>
-      <c r="G184" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6398,13 +5945,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>215</v>
-      </c>
-      <c r="G185" t="s">
-        <v>216</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6424,13 +5969,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>30</v>
-      </c>
-      <c r="G186" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6450,13 +5993,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>215</v>
-      </c>
-      <c r="G187" t="s">
-        <v>216</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6476,13 +6017,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>30</v>
-      </c>
-      <c r="G188" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6502,13 +6041,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>215</v>
-      </c>
-      <c r="G189" t="s">
-        <v>216</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6528,13 +6065,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
-      </c>
-      <c r="G190" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6554,13 +6089,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
+        <v>200</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
         <v>215</v>
-      </c>
-      <c r="G191" t="s">
-        <v>216</v>
-      </c>
-      <c r="H191" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6580,13 +6113,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>30</v>
-      </c>
-      <c r="G192" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6606,13 +6137,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>215</v>
-      </c>
-      <c r="G193" t="s">
-        <v>216</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6634,11 +6163,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>12</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6658,13 +6185,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>30</v>
-      </c>
-      <c r="G195" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6686,11 +6211,9 @@
       <c r="F196" t="s">
         <v>11</v>
       </c>
-      <c r="G196" t="s">
-        <v>12</v>
-      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6710,13 +6233,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>30</v>
-      </c>
-      <c r="G197" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6738,11 +6259,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>12</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6762,13 +6281,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>30</v>
-      </c>
-      <c r="G199" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6790,11 +6307,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>12</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6814,13 +6329,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>30</v>
-      </c>
-      <c r="G201" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6842,11 +6355,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>12</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6866,13 +6377,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>30</v>
-      </c>
-      <c r="G203" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6894,11 +6403,9 @@
       <c r="F204" t="s">
         <v>11</v>
       </c>
-      <c r="G204" t="s">
-        <v>12</v>
-      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6918,13 +6425,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>30</v>
-      </c>
-      <c r="G205" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6946,11 +6451,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>12</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6970,13 +6473,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>30</v>
-      </c>
-      <c r="G207" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6998,11 +6499,9 @@
       <c r="F208" t="s">
         <v>11</v>
       </c>
-      <c r="G208" t="s">
-        <v>12</v>
-      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7022,13 +6521,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>30</v>
-      </c>
-      <c r="G209" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7050,11 +6547,9 @@
       <c r="F210" t="s">
         <v>11</v>
       </c>
-      <c r="G210" t="s">
-        <v>12</v>
-      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7074,13 +6569,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>30</v>
-      </c>
-      <c r="G211" t="s">
-        <v>250</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7102,11 +6595,9 @@
       <c r="F212" t="s">
         <v>11</v>
       </c>
-      <c r="G212" t="s">
-        <v>12</v>
-      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7126,13 +6617,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
-      </c>
-      <c r="G213" t="s">
-        <v>253</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7154,11 +6643,9 @@
       <c r="F214" t="s">
         <v>11</v>
       </c>
-      <c r="G214" t="s">
-        <v>12</v>
-      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7178,13 +6665,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>30</v>
-      </c>
-      <c r="G215" t="s">
-        <v>256</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7206,11 +6691,9 @@
       <c r="F216" t="s">
         <v>11</v>
       </c>
-      <c r="G216" t="s">
-        <v>12</v>
-      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7230,13 +6713,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>30</v>
-      </c>
-      <c r="G217" t="s">
-        <v>259</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7258,11 +6739,9 @@
       <c r="F218" t="s">
         <v>11</v>
       </c>
-      <c r="G218" t="s">
-        <v>12</v>
-      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7282,13 +6761,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>30</v>
-      </c>
-      <c r="G219" t="s">
-        <v>262</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7310,11 +6787,9 @@
       <c r="F220" t="s">
         <v>11</v>
       </c>
-      <c r="G220" t="s">
-        <v>12</v>
-      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7334,13 +6809,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>104</v>
-      </c>
-      <c r="G221" t="s">
-        <v>105</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7360,13 +6833,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>30</v>
-      </c>
-      <c r="G222" t="s">
-        <v>250</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7386,13 +6857,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>104</v>
-      </c>
-      <c r="G223" t="s">
-        <v>105</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7412,13 +6881,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>30</v>
-      </c>
-      <c r="G224" t="s">
-        <v>262</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7438,13 +6905,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>104</v>
-      </c>
-      <c r="G225" t="s">
-        <v>105</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7464,13 +6929,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>30</v>
-      </c>
-      <c r="G226" t="s">
-        <v>250</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7490,13 +6953,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>104</v>
-      </c>
-      <c r="G227" t="s">
-        <v>105</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7516,13 +6977,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>30</v>
-      </c>
-      <c r="G228" t="s">
-        <v>250</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7542,13 +7001,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>104</v>
-      </c>
-      <c r="G229" t="s">
-        <v>105</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7568,13 +7025,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>30</v>
-      </c>
-      <c r="G230" t="s">
+        <v>25</v>
+      </c>
+      <c r="G230" t="s"/>
+      <c r="H230" t="s">
         <v>253</v>
-      </c>
-      <c r="H230" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7594,13 +7049,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>104</v>
-      </c>
-      <c r="G231" t="s">
-        <v>105</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7620,13 +7073,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>30</v>
-      </c>
-      <c r="G232" t="s">
-        <v>253</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7646,13 +7097,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>104</v>
-      </c>
-      <c r="G233" t="s">
-        <v>105</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7674,11 +7123,9 @@
       <c r="F234" t="s">
         <v>11</v>
       </c>
-      <c r="G234" t="s">
-        <v>12</v>
-      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7698,13 +7145,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>14</v>
-      </c>
-      <c r="G235" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7724,13 +7169,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>30</v>
-      </c>
-      <c r="G236" t="s">
-        <v>256</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7750,13 +7193,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>14</v>
-      </c>
-      <c r="G237" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7776,13 +7217,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>30</v>
-      </c>
-      <c r="G238" t="s">
-        <v>256</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7802,13 +7241,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>14</v>
-      </c>
-      <c r="G239" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7828,13 +7265,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>30</v>
-      </c>
-      <c r="G240" t="s">
-        <v>256</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7854,13 +7289,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>14</v>
-      </c>
-      <c r="G241" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7882,11 +7315,9 @@
       <c r="F242" t="s">
         <v>11</v>
       </c>
-      <c r="G242" t="s">
-        <v>12</v>
-      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7906,13 +7337,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>120</v>
-      </c>
-      <c r="G243" t="s">
-        <v>121</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7932,13 +7361,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>30</v>
-      </c>
-      <c r="G244" t="s">
-        <v>250</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7958,13 +7385,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>120</v>
-      </c>
-      <c r="G245" t="s">
-        <v>121</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7984,13 +7409,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>30</v>
-      </c>
-      <c r="G246" t="s">
-        <v>250</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8010,13 +7433,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>120</v>
-      </c>
-      <c r="G247" t="s">
-        <v>121</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8036,13 +7457,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>30</v>
-      </c>
-      <c r="G248" t="s">
-        <v>262</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8062,13 +7481,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>120</v>
-      </c>
-      <c r="G249" t="s">
-        <v>121</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8088,13 +7505,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>30</v>
-      </c>
-      <c r="G250" t="s">
-        <v>259</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8114,13 +7529,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>120</v>
-      </c>
-      <c r="G251" t="s">
-        <v>121</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8140,13 +7553,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>30</v>
-      </c>
-      <c r="G252" t="s">
-        <v>259</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8166,13 +7577,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>120</v>
-      </c>
-      <c r="G253" t="s">
-        <v>121</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8194,11 +7603,9 @@
       <c r="F254" t="s">
         <v>11</v>
       </c>
-      <c r="G254" t="s">
-        <v>12</v>
-      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8218,13 +7625,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>120</v>
-      </c>
-      <c r="G255" t="s">
-        <v>121</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8246,11 +7651,9 @@
       <c r="F256" t="s">
         <v>11</v>
       </c>
-      <c r="G256" t="s">
-        <v>12</v>
-      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8270,13 +7673,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>30</v>
-      </c>
-      <c r="G257" t="s">
-        <v>256</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8298,11 +7699,9 @@
       <c r="F258" t="s">
         <v>11</v>
       </c>
-      <c r="G258" t="s">
-        <v>12</v>
-      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8322,13 +7721,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>30</v>
-      </c>
-      <c r="G259" t="s">
-        <v>152</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8348,13 +7745,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>30</v>
-      </c>
-      <c r="G260" t="s">
-        <v>256</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8374,13 +7769,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>30</v>
-      </c>
-      <c r="G261" t="s">
-        <v>152</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8400,13 +7793,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>30</v>
-      </c>
-      <c r="G262" t="s">
-        <v>256</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8426,13 +7817,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>30</v>
-      </c>
-      <c r="G263" t="s">
-        <v>152</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8452,13 +7841,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>30</v>
-      </c>
-      <c r="G264" t="s">
-        <v>256</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8478,13 +7865,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>30</v>
-      </c>
-      <c r="G265" t="s">
-        <v>152</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8504,13 +7889,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>30</v>
-      </c>
-      <c r="G266" t="s">
-        <v>256</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8530,13 +7913,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>30</v>
-      </c>
-      <c r="G267" t="s">
-        <v>152</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8556,13 +7937,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>30</v>
-      </c>
-      <c r="G268" t="s">
-        <v>256</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8582,13 +7961,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>30</v>
-      </c>
-      <c r="G269" t="s">
-        <v>152</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8610,11 +7987,9 @@
       <c r="F270" t="s">
         <v>11</v>
       </c>
-      <c r="G270" t="s">
-        <v>12</v>
-      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8634,13 +8009,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>30</v>
-      </c>
-      <c r="G271" t="s">
-        <v>259</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8662,11 +8035,9 @@
       <c r="F272" t="s">
         <v>11</v>
       </c>
-      <c r="G272" t="s">
-        <v>12</v>
-      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8686,13 +8057,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>30</v>
-      </c>
-      <c r="G273" t="s">
-        <v>259</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8714,11 +8083,9 @@
       <c r="F274" t="s">
         <v>11</v>
       </c>
-      <c r="G274" t="s">
-        <v>12</v>
-      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8738,13 +8105,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>30</v>
-      </c>
-      <c r="G275" t="s">
-        <v>259</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8766,11 +8131,9 @@
       <c r="F276" t="s">
         <v>11</v>
       </c>
-      <c r="G276" t="s">
-        <v>12</v>
-      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8790,13 +8153,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>30</v>
-      </c>
-      <c r="G277" t="s">
-        <v>250</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8818,11 +8179,9 @@
       <c r="F278" t="s">
         <v>11</v>
       </c>
-      <c r="G278" t="s">
-        <v>12</v>
-      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8842,13 +8201,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>30</v>
-      </c>
-      <c r="G279" t="s">
-        <v>250</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8870,11 +8227,9 @@
       <c r="F280" t="s">
         <v>11</v>
       </c>
-      <c r="G280" t="s">
-        <v>12</v>
-      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8894,13 +8249,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>30</v>
-      </c>
-      <c r="G281" t="s">
-        <v>250</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8922,11 +8275,9 @@
       <c r="F282" t="s">
         <v>11</v>
       </c>
-      <c r="G282" t="s">
-        <v>12</v>
-      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8946,13 +8297,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>30</v>
-      </c>
-      <c r="G283" t="s">
-        <v>250</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8974,11 +8323,9 @@
       <c r="F284" t="s">
         <v>11</v>
       </c>
-      <c r="G284" t="s">
-        <v>12</v>
-      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9000,11 +8347,9 @@
       <c r="F285" t="s">
         <v>11</v>
       </c>
-      <c r="G285" t="s">
-        <v>12</v>
-      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9024,13 +8369,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>30</v>
-      </c>
-      <c r="G286" t="s">
-        <v>330</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9052,11 +8395,9 @@
       <c r="F287" t="s">
         <v>11</v>
       </c>
-      <c r="G287" t="s">
-        <v>12</v>
-      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9076,13 +8417,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>30</v>
-      </c>
-      <c r="G288" t="s">
-        <v>333</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9102,13 +8441,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>30</v>
-      </c>
-      <c r="G289" t="s">
-        <v>333</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9130,11 +8467,9 @@
       <c r="F290" t="s">
         <v>11</v>
       </c>
-      <c r="G290" t="s">
-        <v>12</v>
-      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9154,13 +8489,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>30</v>
-      </c>
-      <c r="G291" t="s">
-        <v>337</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9182,11 +8515,9 @@
       <c r="F292" t="s">
         <v>11</v>
       </c>
-      <c r="G292" t="s">
-        <v>12</v>
-      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9206,13 +8537,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>30</v>
-      </c>
-      <c r="G293" t="s">
-        <v>340</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9234,11 +8563,9 @@
       <c r="F294" t="s">
         <v>11</v>
       </c>
-      <c r="G294" t="s">
-        <v>12</v>
-      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9258,13 +8585,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>30</v>
-      </c>
-      <c r="G295" t="s">
-        <v>343</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9286,11 +8611,9 @@
       <c r="F296" t="s">
         <v>11</v>
       </c>
-      <c r="G296" t="s">
-        <v>12</v>
-      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9310,13 +8633,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>30</v>
-      </c>
-      <c r="G297" t="s">
-        <v>346</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9338,11 +8659,9 @@
       <c r="F298" t="s">
         <v>11</v>
       </c>
-      <c r="G298" t="s">
-        <v>12</v>
-      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9362,13 +8681,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>30</v>
-      </c>
-      <c r="G299" t="s">
-        <v>349</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9390,11 +8707,9 @@
       <c r="F300" t="s">
         <v>11</v>
       </c>
-      <c r="G300" t="s">
-        <v>12</v>
-      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9414,13 +8729,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>30</v>
-      </c>
-      <c r="G301" t="s">
-        <v>352</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9442,11 +8755,9 @@
       <c r="F302" t="s">
         <v>11</v>
       </c>
-      <c r="G302" t="s">
-        <v>12</v>
-      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9466,13 +8777,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>14</v>
-      </c>
-      <c r="G303" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9492,13 +8801,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>30</v>
-      </c>
-      <c r="G304" t="s">
-        <v>333</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9518,13 +8825,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>14</v>
-      </c>
-      <c r="G305" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9544,13 +8849,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>30</v>
-      </c>
-      <c r="G306" t="s">
-        <v>333</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9570,13 +8873,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>14</v>
-      </c>
-      <c r="G307" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9596,13 +8897,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>30</v>
-      </c>
-      <c r="G308" t="s">
-        <v>333</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9622,13 +8921,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>14</v>
-      </c>
-      <c r="G309" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9648,13 +8945,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>30</v>
-      </c>
-      <c r="G310" t="s">
+        <v>25</v>
+      </c>
+      <c r="G310" t="s"/>
+      <c r="H310" t="s">
         <v>333</v>
-      </c>
-      <c r="H310" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9674,13 +8969,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>14</v>
-      </c>
-      <c r="G311" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9700,13 +8993,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>30</v>
-      </c>
-      <c r="G312" t="s">
-        <v>333</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9726,13 +9017,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>14</v>
-      </c>
-      <c r="G313" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9752,13 +9041,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>30</v>
-      </c>
-      <c r="G314" t="s">
-        <v>333</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9778,13 +9065,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>14</v>
-      </c>
-      <c r="G315" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9804,13 +9089,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>30</v>
-      </c>
-      <c r="G316" t="s">
-        <v>333</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9830,13 +9113,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>14</v>
-      </c>
-      <c r="G317" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9856,13 +9137,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>30</v>
-      </c>
-      <c r="G318" t="s">
-        <v>333</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9882,13 +9161,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>14</v>
-      </c>
-      <c r="G319" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9908,13 +9185,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>30</v>
-      </c>
-      <c r="G320" t="s">
-        <v>333</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9936,11 +9211,9 @@
       <c r="F321" t="s">
         <v>11</v>
       </c>
-      <c r="G321" t="s">
-        <v>12</v>
-      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9960,13 +9233,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>14</v>
-      </c>
-      <c r="G322" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9988,11 +9259,9 @@
       <c r="F323" t="s">
         <v>11</v>
       </c>
-      <c r="G323" t="s">
-        <v>12</v>
-      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10014,11 +9283,9 @@
       <c r="F324" t="s">
         <v>11</v>
       </c>
-      <c r="G324" t="s">
-        <v>12</v>
-      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10040,11 +9307,9 @@
       <c r="F325" t="s">
         <v>11</v>
       </c>
-      <c r="G325" t="s">
-        <v>12</v>
-      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10064,13 +9329,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>74</v>
-      </c>
-      <c r="G326" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10090,13 +9353,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>30</v>
-      </c>
-      <c r="G327" t="s">
-        <v>330</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10116,13 +9377,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>74</v>
-      </c>
-      <c r="G328" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10142,13 +9401,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>30</v>
-      </c>
-      <c r="G329" t="s">
-        <v>330</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10168,13 +9425,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>74</v>
-      </c>
-      <c r="G330" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10194,13 +9449,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>30</v>
-      </c>
-      <c r="G331" t="s">
-        <v>330</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10220,13 +9473,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>74</v>
-      </c>
-      <c r="G332" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10246,13 +9497,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>30</v>
-      </c>
-      <c r="G333" t="s">
-        <v>330</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10272,13 +9521,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>74</v>
-      </c>
-      <c r="G334" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10298,13 +9545,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>30</v>
-      </c>
-      <c r="G335" t="s">
-        <v>330</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10324,13 +9569,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>74</v>
-      </c>
-      <c r="G336" t="s">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10350,13 +9593,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>30</v>
-      </c>
-      <c r="G337" t="s">
-        <v>330</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10378,11 +9619,9 @@
       <c r="F338" t="s">
         <v>11</v>
       </c>
-      <c r="G338" t="s">
-        <v>12</v>
-      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10402,13 +9641,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>30</v>
-      </c>
-      <c r="G339" t="s">
-        <v>352</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10428,13 +9665,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>30</v>
-      </c>
-      <c r="G340" t="s">
-        <v>352</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10454,13 +9689,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>30</v>
-      </c>
-      <c r="G341" t="s">
-        <v>352</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10480,13 +9713,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>30</v>
-      </c>
-      <c r="G342" t="s">
-        <v>352</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10506,13 +9737,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>30</v>
-      </c>
-      <c r="G343" t="s">
-        <v>352</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10534,11 +9763,9 @@
       <c r="F344" t="s">
         <v>11</v>
       </c>
-      <c r="G344" t="s">
-        <v>12</v>
-      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10560,11 +9787,9 @@
       <c r="F345" t="s">
         <v>11</v>
       </c>
-      <c r="G345" t="s">
-        <v>12</v>
-      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10584,13 +9809,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>30</v>
-      </c>
-      <c r="G346" t="s">
-        <v>330</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10612,11 +9835,9 @@
       <c r="F347" t="s">
         <v>11</v>
       </c>
-      <c r="G347" t="s">
-        <v>12</v>
-      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10636,13 +9857,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>30</v>
-      </c>
-      <c r="G348" t="s">
-        <v>349</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10664,11 +9883,9 @@
       <c r="F349" t="s">
         <v>11</v>
       </c>
-      <c r="G349" t="s">
-        <v>12</v>
-      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10688,13 +9905,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>30</v>
-      </c>
-      <c r="G350" t="s">
-        <v>349</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10716,11 +9931,9 @@
       <c r="F351" t="s">
         <v>11</v>
       </c>
-      <c r="G351" t="s">
-        <v>12</v>
-      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10740,13 +9953,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>30</v>
-      </c>
-      <c r="G352" t="s">
-        <v>349</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10768,11 +9979,9 @@
       <c r="F353" t="s">
         <v>11</v>
       </c>
-      <c r="G353" t="s">
-        <v>12</v>
-      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10792,13 +10001,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>30</v>
-      </c>
-      <c r="G354" t="s">
-        <v>346</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10820,11 +10027,9 @@
       <c r="F355" t="s">
         <v>11</v>
       </c>
-      <c r="G355" t="s">
-        <v>12</v>
-      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10846,11 +10051,9 @@
       <c r="F356" t="s">
         <v>11</v>
       </c>
-      <c r="G356" t="s">
-        <v>12</v>
-      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10870,13 +10073,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>30</v>
-      </c>
-      <c r="G357" t="s">
-        <v>352</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
